--- a/ampl-data-input-excel/30-PM-multi/30-PM-multi.xlsx
+++ b/ampl-data-input-excel/30-PM-multi/30-PM-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -783,11 +783,12 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -808,11 +809,18 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -821,12 +829,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -919,7 +929,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,7 +998,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1018,14 +1028,6 @@
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1088,7 +1090,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1421,7 +1423,7 @@
       <c r="C1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1435,7 +1437,7 @@
       <c r="C2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="41" t="n">
+      <c r="D2" s="39" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>46391</v>
       </c>
@@ -1470,7 +1472,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1497,10 +1499,10 @@
       <c r="I1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="38" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1518,7 +1520,7 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="32" t="n">
+      <c r="F2" s="30" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
@@ -1531,11 +1533,11 @@
       <c r="I2" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="43" t="b">
+      <c r="J2" s="41" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="43" t="b">
+      <c r="K2" s="41" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1569,7 +1571,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1596,10 +1598,10 @@
       <c r="I1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="38" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1617,7 +1619,7 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="32" t="n">
+      <c r="F2" s="30" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
@@ -1630,11 +1632,11 @@
       <c r="I2" s="7" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="43" t="b">
+      <c r="J2" s="41" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="43" t="b">
+      <c r="K2" s="41" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1668,7 +1670,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>148</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1689,10 +1691,10 @@
       <c r="G1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1710,18 +1712,18 @@
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="32" t="n">
+      <c r="F2" s="30" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="43" t="b">
+      <c r="H2" s="41" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="43" t="b">
+      <c r="I2" s="41" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1758,7 +1760,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>149</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1829,7 +1831,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1902,7 +1904,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>159</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1980,7 +1982,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -1991,7 +1993,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -8122,9 +8124,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -8135,10 +8137,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="24" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="25" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="26" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,10 +8153,10 @@
       <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="4" t="b">
@@ -8173,26 +8172,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28" t="n">
+      <c r="C2" s="26" t="n">
         <f aca="false">VLOOKUP(B2, task!A$2:I$300, 2, 0)</f>
         <v>45814</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="26" t="n">
         <f aca="false">VLOOKUP(B2, task!A$2:I$300, 3, 0)</f>
         <v>45844</v>
       </c>
-      <c r="E2" s="29" t="n">
+      <c r="E2" s="27" t="n">
         <f aca="false">VLOOKUP(B2, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F2" s="29" t="n">
+      <c r="F2" s="27" t="n">
         <f aca="false">VLOOKUP(B2, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -8208,28 +8207,27 @@
         <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="26" t="n">
         <f aca="false">VLOOKUP(B3, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D3" s="26" t="n">
         <f aca="false">VLOOKUP(B3, task!A$2:I$300, 3, 0)</f>
         <v>45813</v>
       </c>
-      <c r="E3" s="29" t="n">
+      <c r="E3" s="27" t="n">
         <f aca="false">VLOOKUP(B3, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F3" s="29" t="n">
+      <c r="F3" s="27" t="n">
         <f aca="false">VLOOKUP(B3, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -8245,28 +8243,27 @@
         <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="26" t="n">
         <f aca="false">VLOOKUP(B4, task!A$2:I$300, 2, 0)</f>
         <v>45714</v>
       </c>
-      <c r="D4" s="28" t="n">
+      <c r="D4" s="26" t="n">
         <f aca="false">VLOOKUP(B4, task!A$2:I$300, 3, 0)</f>
         <v>45759</v>
       </c>
-      <c r="E4" s="29" t="n">
+      <c r="E4" s="27" t="n">
         <f aca="false">VLOOKUP(B4, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="29" t="n">
+      <c r="F4" s="27" t="n">
         <f aca="false">VLOOKUP(B4, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -8282,28 +8279,27 @@
         <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="26" t="n">
         <f aca="false">VLOOKUP(B5, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D5" s="26" t="n">
         <f aca="false">VLOOKUP(B5, task!A$2:I$300, 3, 0)</f>
         <v>45713</v>
       </c>
-      <c r="E5" s="29" t="n">
+      <c r="E5" s="27" t="n">
         <f aca="false">VLOOKUP(B5, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F5" s="29" t="n">
+      <c r="F5" s="27" t="n">
         <f aca="false">VLOOKUP(B5, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -8319,28 +8315,27 @@
         <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="28" t="n">
+      <c r="C6" s="26" t="n">
         <f aca="false">VLOOKUP(B6, task!A$2:I$300, 2, 0)</f>
         <v>45698</v>
       </c>
-      <c r="D6" s="28" t="n">
+      <c r="D6" s="26" t="n">
         <f aca="false">VLOOKUP(B6, task!A$2:I$300, 3, 0)</f>
         <v>45715</v>
       </c>
-      <c r="E6" s="29" t="n">
+      <c r="E6" s="27" t="n">
         <f aca="false">VLOOKUP(B6, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F6" s="29" t="n">
+      <c r="F6" s="27" t="n">
         <f aca="false">VLOOKUP(B6, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -8356,7 +8351,6 @@
         <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -8365,19 +8359,19 @@
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="26" t="n">
         <f aca="false">VLOOKUP(B7, task!A$2:I$300, 2, 0)</f>
         <v>45839</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="26" t="n">
         <f aca="false">VLOOKUP(B7, task!A$2:I$300, 3, 0)</f>
         <v>45884</v>
       </c>
-      <c r="E7" s="29" t="n">
+      <c r="E7" s="27" t="n">
         <f aca="false">VLOOKUP(B7, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="29" t="n">
+      <c r="F7" s="27" t="n">
         <f aca="false">VLOOKUP(B7, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -8401,19 +8395,19 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="26" t="n">
         <f aca="false">VLOOKUP(B8, task!A$2:I$300, 2, 0)</f>
         <v>45716</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="26" t="n">
         <f aca="false">VLOOKUP(B8, task!A$2:I$300, 3, 0)</f>
         <v>45838</v>
       </c>
-      <c r="E8" s="29" t="n">
+      <c r="E8" s="27" t="n">
         <f aca="false">VLOOKUP(B8, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="27" t="n">
         <f aca="false">VLOOKUP(B8, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -8437,19 +8431,19 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="26" t="n">
         <f aca="false">VLOOKUP(B9, task!A$2:I$300, 2, 0)</f>
         <v>45757</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="26" t="n">
         <f aca="false">VLOOKUP(B9, task!A$2:I$300, 3, 0)</f>
         <v>45767</v>
       </c>
-      <c r="E9" s="29" t="n">
+      <c r="E9" s="27" t="n">
         <f aca="false">VLOOKUP(B9, task!A$2:I$300, 8, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="F9" s="29" t="n">
+      <c r="F9" s="27" t="n">
         <f aca="false">VLOOKUP(B9, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
@@ -8473,19 +8467,19 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="26" t="n">
         <f aca="false">VLOOKUP(B10, task!A$2:I$300, 2, 0)</f>
         <v>45926</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="26" t="n">
         <f aca="false">VLOOKUP(B10, task!A$2:I$300, 3, 0)</f>
         <v>45960</v>
       </c>
-      <c r="E10" s="29" t="n">
+      <c r="E10" s="27" t="n">
         <f aca="false">VLOOKUP(B10, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="27" t="n">
         <f aca="false">VLOOKUP(B10, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -8509,19 +8503,19 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="26" t="n">
         <f aca="false">VLOOKUP(B11, task!A$2:I$300, 2, 0)</f>
         <v>45768</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="26" t="n">
         <f aca="false">VLOOKUP(B11, task!A$2:I$300, 3, 0)</f>
         <v>45925</v>
       </c>
-      <c r="E11" s="29" t="n">
+      <c r="E11" s="27" t="n">
         <f aca="false">VLOOKUP(B11, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="27" t="n">
         <f aca="false">VLOOKUP(B11, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -8545,19 +8539,19 @@
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C12" s="26" t="n">
         <f aca="false">VLOOKUP(B12, task!A$2:I$300, 2, 0)</f>
         <v>45803</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="26" t="n">
         <f aca="false">VLOOKUP(B12, task!A$2:I$300, 3, 0)</f>
         <v>45822</v>
       </c>
-      <c r="E12" s="29" t="n">
+      <c r="E12" s="27" t="n">
         <f aca="false">VLOOKUP(B12, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="27" t="n">
         <f aca="false">VLOOKUP(B12, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -8581,19 +8575,19 @@
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="26" t="n">
         <f aca="false">VLOOKUP(B13, task!A$2:I$300, 2, 0)</f>
         <v>46022</v>
       </c>
-      <c r="D13" s="28" t="n">
+      <c r="D13" s="26" t="n">
         <f aca="false">VLOOKUP(B13, task!A$2:I$300, 3, 0)</f>
         <v>46053</v>
       </c>
-      <c r="E13" s="29" t="n">
+      <c r="E13" s="27" t="n">
         <f aca="false">VLOOKUP(B13, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="27" t="n">
         <f aca="false">VLOOKUP(B13, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -8617,18 +8611,18 @@
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="26" t="n">
         <f aca="false">VLOOKUP(B14, task!A$2:I$300, 2, 0)</f>
         <v>45823</v>
       </c>
-      <c r="D14" s="28" t="n">
+      <c r="D14" s="26" t="n">
         <f aca="false">VLOOKUP(B14, task!A$2:I$300, 3, 0)</f>
         <v>46021</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="27" t="n">
         <f aca="false">VLOOKUP(B14, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -8652,19 +8646,19 @@
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="26" t="n">
         <f aca="false">VLOOKUP(B15, task!A$2:I$300, 2, 0)</f>
         <v>45829</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="26" t="n">
         <f aca="false">VLOOKUP(B15, task!A$2:I$300, 3, 0)</f>
         <v>45838</v>
       </c>
-      <c r="E15" s="29" t="n">
+      <c r="E15" s="27" t="n">
         <f aca="false">VLOOKUP(B15, task!A$2:I$300, 8, 0)</f>
         <v>3.25</v>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="27" t="n">
         <f aca="false">VLOOKUP(B15, task!A$2:I$300, 9, 0)</f>
         <v>3.5</v>
       </c>
@@ -8688,19 +8682,19 @@
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="C16" s="26" t="n">
         <f aca="false">VLOOKUP(B16, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="D16" s="26" t="n">
         <f aca="false">VLOOKUP(B16, task!A$2:I$300, 3, 0)</f>
         <v>45828</v>
       </c>
-      <c r="E16" s="29" t="n">
+      <c r="E16" s="27" t="n">
         <f aca="false">VLOOKUP(B16, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="27" t="n">
         <f aca="false">VLOOKUP(B16, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -8724,19 +8718,19 @@
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="26" t="n">
         <f aca="false">VLOOKUP(B17, task!A$2:I$300, 2, 0)</f>
         <v>45829</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="26" t="n">
         <f aca="false">VLOOKUP(B17, task!A$2:I$300, 3, 0)</f>
         <v>45838</v>
       </c>
-      <c r="E17" s="29" t="n">
+      <c r="E17" s="27" t="n">
         <f aca="false">VLOOKUP(B17, task!A$2:I$300, 8, 0)</f>
         <v>3.25</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="27" t="n">
         <f aca="false">VLOOKUP(B17, task!A$2:I$300, 9, 0)</f>
         <v>3.5</v>
       </c>
@@ -8760,19 +8754,19 @@
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="26" t="n">
         <f aca="false">VLOOKUP(B18, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D18" s="28" t="n">
+      <c r="D18" s="26" t="n">
         <f aca="false">VLOOKUP(B18, task!A$2:I$300, 3, 0)</f>
         <v>45828</v>
       </c>
-      <c r="E18" s="29" t="n">
+      <c r="E18" s="27" t="n">
         <f aca="false">VLOOKUP(B18, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="27" t="n">
         <f aca="false">VLOOKUP(B18, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -8796,18 +8790,18 @@
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="C19" s="26" t="n">
         <f aca="false">VLOOKUP(B19, task!A$2:I$300, 2, 0)</f>
         <v>45809</v>
       </c>
-      <c r="D19" s="28" t="n">
+      <c r="D19" s="26" t="n">
         <f aca="false">VLOOKUP(B19, task!A$2:I$300, 3, 0)</f>
         <v>45834</v>
       </c>
-      <c r="E19" s="26" t="n">
+      <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="26" t="n">
+      <c r="F19" s="1" t="n">
         <v>1.75</v>
       </c>
       <c r="G19" s="2" t="n">
@@ -8830,19 +8824,19 @@
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="26" t="n">
         <f aca="false">VLOOKUP(B20, task!A$2:I$300, 2, 0)</f>
         <v>46336</v>
       </c>
-      <c r="D20" s="28" t="n">
+      <c r="D20" s="26" t="n">
         <f aca="false">VLOOKUP(B20, task!A$2:I$300, 3, 0)</f>
         <v>46391</v>
       </c>
-      <c r="E20" s="29" t="n">
+      <c r="E20" s="27" t="n">
         <f aca="false">VLOOKUP(B20, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="27" t="n">
         <f aca="false">VLOOKUP(B20, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -8866,19 +8860,19 @@
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="28" t="n">
+      <c r="C21" s="26" t="n">
         <f aca="false">VLOOKUP(B21, task!A$2:I$300, 2, 0)</f>
         <v>45835</v>
       </c>
-      <c r="D21" s="28" t="n">
+      <c r="D21" s="26" t="n">
         <f aca="false">VLOOKUP(B21, task!A$2:I$300, 3, 0)</f>
         <v>46335</v>
       </c>
-      <c r="E21" s="29" t="n">
+      <c r="E21" s="27" t="n">
         <f aca="false">VLOOKUP(B21, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F21" s="29" t="n">
+      <c r="F21" s="27" t="n">
         <f aca="false">VLOOKUP(B21, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -8902,19 +8896,19 @@
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="28" t="n">
+      <c r="C22" s="26" t="n">
         <f aca="false">VLOOKUP(B22, task!A$2:I$300, 2, 0)</f>
         <v>45719</v>
       </c>
-      <c r="D22" s="28" t="n">
+      <c r="D22" s="26" t="n">
         <f aca="false">VLOOKUP(B22, task!A$2:I$300, 3, 0)</f>
         <v>45726</v>
       </c>
-      <c r="E22" s="29" t="n">
+      <c r="E22" s="27" t="n">
         <f aca="false">VLOOKUP(B22, task!A$2:I$300, 8, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="27" t="n">
         <f aca="false">VLOOKUP(B22, task!A$2:I$300, 9, 0)</f>
         <v>1.75</v>
       </c>
@@ -8938,19 +8932,19 @@
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="28" t="n">
+      <c r="C23" s="26" t="n">
         <f aca="false">VLOOKUP(B23, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D23" s="28" t="n">
+      <c r="D23" s="26" t="n">
         <f aca="false">VLOOKUP(B23, task!A$2:I$300, 3, 0)</f>
         <v>45718</v>
       </c>
-      <c r="E23" s="29" t="n">
+      <c r="E23" s="27" t="n">
         <f aca="false">VLOOKUP(B23, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="27" t="n">
         <f aca="false">VLOOKUP(B23, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -8974,19 +8968,19 @@
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="28" t="n">
+      <c r="C24" s="26" t="n">
         <f aca="false">VLOOKUP(B24, task!A$2:I$300, 2, 0)</f>
         <v>45853</v>
       </c>
-      <c r="D24" s="28" t="n">
+      <c r="D24" s="26" t="n">
         <f aca="false">VLOOKUP(B24, task!A$2:I$300, 3, 0)</f>
         <v>45878</v>
       </c>
-      <c r="E24" s="29" t="n">
+      <c r="E24" s="27" t="n">
         <f aca="false">VLOOKUP(B24, task!A$2:I$300, 8, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="F24" s="29" t="n">
+      <c r="F24" s="27" t="n">
         <f aca="false">VLOOKUP(B24, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
@@ -9010,19 +9004,19 @@
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="28" t="n">
+      <c r="C25" s="26" t="n">
         <f aca="false">VLOOKUP(B25, task!A$2:I$300, 2, 0)</f>
         <v>45879</v>
       </c>
-      <c r="D25" s="28" t="n">
+      <c r="D25" s="26" t="n">
         <f aca="false">VLOOKUP(B25, task!A$2:I$300, 3, 0)</f>
         <v>46029</v>
       </c>
-      <c r="E25" s="29" t="n">
+      <c r="E25" s="27" t="n">
         <f aca="false">VLOOKUP(B25, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="29" t="n">
+      <c r="F25" s="27" t="n">
         <f aca="false">VLOOKUP(B25, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -9046,19 +9040,19 @@
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="28" t="n">
+      <c r="C26" s="26" t="n">
         <f aca="false">VLOOKUP(B26, task!A$2:I$300, 2, 0)</f>
         <v>46030</v>
       </c>
-      <c r="D26" s="28" t="n">
+      <c r="D26" s="26" t="n">
         <f aca="false">VLOOKUP(B26, task!A$2:I$300, 3, 0)</f>
         <v>46054</v>
       </c>
-      <c r="E26" s="29" t="n">
+      <c r="E26" s="27" t="n">
         <f aca="false">VLOOKUP(B26, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F26" s="29" t="n">
+      <c r="F26" s="27" t="n">
         <f aca="false">VLOOKUP(B26, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -9082,19 +9076,19 @@
       <c r="B27" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="28" t="n">
+      <c r="C27" s="26" t="n">
         <f aca="false">VLOOKUP(B27, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D27" s="28" t="n">
+      <c r="D27" s="26" t="n">
         <f aca="false">VLOOKUP(B27, task!A$2:I$300, 3, 0)</f>
         <v>45748</v>
       </c>
-      <c r="E27" s="29" t="n">
+      <c r="E27" s="27" t="n">
         <f aca="false">VLOOKUP(B27, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F27" s="29" t="n">
+      <c r="F27" s="27" t="n">
         <f aca="false">VLOOKUP(B27, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -9118,19 +9112,19 @@
       <c r="B28" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="28" t="n">
+      <c r="C28" s="26" t="n">
         <f aca="false">VLOOKUP(B28, task!A$2:I$300, 2, 0)</f>
         <v>45749</v>
       </c>
-      <c r="D28" s="28" t="n">
+      <c r="D28" s="26" t="n">
         <f aca="false">VLOOKUP(B28, task!A$2:I$300, 3, 0)</f>
         <v>45779</v>
       </c>
-      <c r="E28" s="29" t="n">
+      <c r="E28" s="27" t="n">
         <f aca="false">VLOOKUP(B28, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="29" t="n">
+      <c r="F28" s="27" t="n">
         <f aca="false">VLOOKUP(B28, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -9155,19 +9149,19 @@
       <c r="B29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="28" t="n">
+      <c r="C29" s="26" t="n">
         <f aca="false">VLOOKUP(B29, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D29" s="28" t="n">
+      <c r="D29" s="26" t="n">
         <f aca="false">VLOOKUP(B29, task!A$2:I$300, 3, 0)</f>
         <v>45828</v>
       </c>
-      <c r="E29" s="29" t="n">
+      <c r="E29" s="27" t="n">
         <f aca="false">VLOOKUP(B29, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F29" s="29" t="n">
+      <c r="F29" s="27" t="n">
         <f aca="false">VLOOKUP(B29, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -9192,19 +9186,19 @@
       <c r="B30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="28" t="n">
+      <c r="C30" s="26" t="n">
         <f aca="false">VLOOKUP(B30, task!A$2:I$300, 2, 0)</f>
         <v>45829</v>
       </c>
-      <c r="D30" s="28" t="n">
+      <c r="D30" s="26" t="n">
         <f aca="false">VLOOKUP(B30, task!A$2:I$300, 3, 0)</f>
         <v>45874</v>
       </c>
-      <c r="E30" s="29" t="n">
+      <c r="E30" s="27" t="n">
         <f aca="false">VLOOKUP(B30, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="29" t="n">
+      <c r="F30" s="27" t="n">
         <f aca="false">VLOOKUP(B30, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -9229,19 +9223,19 @@
       <c r="B31" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="28" t="n">
+      <c r="C31" s="26" t="n">
         <f aca="false">VLOOKUP(B31, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D31" s="28" t="n">
+      <c r="D31" s="26" t="n">
         <f aca="false">VLOOKUP(B31, task!A$2:I$300, 3, 0)</f>
         <v>45931</v>
       </c>
-      <c r="E31" s="29" t="n">
+      <c r="E31" s="27" t="n">
         <f aca="false">VLOOKUP(B31, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F31" s="29" t="n">
+      <c r="F31" s="27" t="n">
         <f aca="false">VLOOKUP(B31, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -9266,19 +9260,19 @@
       <c r="B32" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="28" t="n">
+      <c r="C32" s="26" t="n">
         <f aca="false">VLOOKUP(B32, task!A$2:I$300, 2, 0)</f>
         <v>45932</v>
       </c>
-      <c r="D32" s="28" t="n">
+      <c r="D32" s="26" t="n">
         <f aca="false">VLOOKUP(B32, task!A$2:I$300, 3, 0)</f>
         <v>45962</v>
       </c>
-      <c r="E32" s="29" t="n">
+      <c r="E32" s="27" t="n">
         <f aca="false">VLOOKUP(B32, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="29" t="n">
+      <c r="F32" s="27" t="n">
         <f aca="false">VLOOKUP(B32, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -9303,19 +9297,19 @@
       <c r="B33" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="28" t="n">
+      <c r="C33" s="26" t="n">
         <f aca="false">VLOOKUP(B33, task!A$2:I$300, 2, 0)</f>
         <v>45833</v>
       </c>
-      <c r="D33" s="28" t="n">
+      <c r="D33" s="26" t="n">
         <f aca="false">VLOOKUP(B33, task!A$2:I$300, 3, 0)</f>
         <v>45847</v>
       </c>
-      <c r="E33" s="29" t="n">
+      <c r="E33" s="27" t="n">
         <f aca="false">VLOOKUP(B33, task!A$2:I$300, 8, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="F33" s="29" t="n">
+      <c r="F33" s="27" t="n">
         <f aca="false">VLOOKUP(B33, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
@@ -9340,19 +9334,19 @@
       <c r="B34" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="28" t="n">
+      <c r="C34" s="26" t="n">
         <f aca="false">VLOOKUP(B34, task!A$2:I$300, 2, 0)</f>
         <v>45848</v>
       </c>
-      <c r="D34" s="28" t="n">
+      <c r="D34" s="26" t="n">
         <f aca="false">VLOOKUP(B34, task!A$2:I$300, 3, 0)</f>
         <v>46021</v>
       </c>
-      <c r="E34" s="29" t="n">
+      <c r="E34" s="27" t="n">
         <f aca="false">VLOOKUP(B34, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F34" s="29" t="n">
+      <c r="F34" s="27" t="n">
         <f aca="false">VLOOKUP(B34, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -9377,19 +9371,19 @@
       <c r="B35" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="28" t="n">
+      <c r="C35" s="26" t="n">
         <f aca="false">VLOOKUP(B35, task!A$2:I$300, 2, 0)</f>
         <v>46022</v>
       </c>
-      <c r="D35" s="28" t="n">
+      <c r="D35" s="26" t="n">
         <f aca="false">VLOOKUP(B35, task!A$2:I$300, 3, 0)</f>
         <v>46053</v>
       </c>
-      <c r="E35" s="29" t="n">
+      <c r="E35" s="27" t="n">
         <f aca="false">VLOOKUP(B35, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F35" s="29" t="n">
+      <c r="F35" s="27" t="n">
         <f aca="false">VLOOKUP(B35, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -9414,19 +9408,19 @@
       <c r="B36" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="28" t="n">
+      <c r="C36" s="26" t="n">
         <f aca="false">VLOOKUP(B36, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D36" s="28" t="n">
+      <c r="D36" s="26" t="n">
         <f aca="false">VLOOKUP(B36, task!A$2:I$300, 3, 0)</f>
         <v>45713</v>
       </c>
-      <c r="E36" s="29" t="n">
+      <c r="E36" s="27" t="n">
         <f aca="false">VLOOKUP(B36, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F36" s="29" t="n">
+      <c r="F36" s="27" t="n">
         <f aca="false">VLOOKUP(B36, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -9451,19 +9445,19 @@
       <c r="B37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="28" t="n">
+      <c r="C37" s="26" t="n">
         <f aca="false">VLOOKUP(B37, task!A$2:I$300, 2, 0)</f>
         <v>45714</v>
       </c>
-      <c r="D37" s="28" t="n">
+      <c r="D37" s="26" t="n">
         <f aca="false">VLOOKUP(B37, task!A$2:I$300, 3, 0)</f>
         <v>45719</v>
       </c>
-      <c r="E37" s="29" t="n">
+      <c r="E37" s="27" t="n">
         <f aca="false">VLOOKUP(B37, task!A$2:I$300, 8, 0)</f>
         <v>3.75</v>
       </c>
-      <c r="F37" s="29" t="n">
+      <c r="F37" s="27" t="n">
         <f aca="false">VLOOKUP(B37, task!A$2:I$300, 9, 0)</f>
         <v>4</v>
       </c>
@@ -9488,19 +9482,19 @@
       <c r="B38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="28" t="n">
+      <c r="C38" s="26" t="n">
         <f aca="false">VLOOKUP(B38, task!A$2:I$300, 2, 0)</f>
         <v>45667</v>
       </c>
-      <c r="D38" s="28" t="n">
+      <c r="D38" s="26" t="n">
         <f aca="false">VLOOKUP(B38, task!A$2:I$300, 3, 0)</f>
         <v>45672</v>
       </c>
-      <c r="E38" s="29" t="n">
+      <c r="E38" s="27" t="n">
         <f aca="false">VLOOKUP(B38, task!A$2:I$300, 8, 0)</f>
         <v>5</v>
       </c>
-      <c r="F38" s="29" t="n">
+      <c r="F38" s="27" t="n">
         <f aca="false">VLOOKUP(B38, task!A$2:I$300, 9, 0)</f>
         <v>5.25</v>
       </c>
@@ -9525,19 +9519,19 @@
       <c r="B39" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="28" t="n">
+      <c r="C39" s="26" t="n">
         <f aca="false">VLOOKUP(B39, task!A$2:I$300, 2, 0)</f>
         <v>45673</v>
       </c>
-      <c r="D39" s="28" t="n">
+      <c r="D39" s="26" t="n">
         <f aca="false">VLOOKUP(B39, task!A$2:I$300, 3, 0)</f>
         <v>45793</v>
       </c>
-      <c r="E39" s="29" t="n">
+      <c r="E39" s="27" t="n">
         <f aca="false">VLOOKUP(B39, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F39" s="29" t="n">
+      <c r="F39" s="27" t="n">
         <f aca="false">VLOOKUP(B39, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -9562,19 +9556,19 @@
       <c r="B40" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="28" t="n">
+      <c r="C40" s="26" t="n">
         <f aca="false">VLOOKUP(B40, task!A$2:I$300, 2, 0)</f>
         <v>45794</v>
       </c>
-      <c r="D40" s="28" t="n">
+      <c r="D40" s="26" t="n">
         <f aca="false">VLOOKUP(B40, task!A$2:I$300, 3, 0)</f>
         <v>45809</v>
       </c>
-      <c r="E40" s="29" t="n">
+      <c r="E40" s="27" t="n">
         <f aca="false">VLOOKUP(B40, task!A$2:I$300, 8, 0)</f>
         <v>2</v>
       </c>
-      <c r="F40" s="29" t="n">
+      <c r="F40" s="27" t="n">
         <f aca="false">VLOOKUP(B40, task!A$2:I$300, 9, 0)</f>
         <v>2.25</v>
       </c>
@@ -9599,19 +9593,19 @@
       <c r="B41" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="28" t="n">
+      <c r="C41" s="26" t="n">
         <f aca="false">VLOOKUP(B41, task!A$2:I$300, 2, 0)</f>
         <v>45833</v>
       </c>
-      <c r="D41" s="28" t="n">
+      <c r="D41" s="26" t="n">
         <f aca="false">VLOOKUP(B41, task!A$2:I$300, 3, 0)</f>
         <v>45848</v>
       </c>
-      <c r="E41" s="29" t="n">
+      <c r="E41" s="27" t="n">
         <f aca="false">VLOOKUP(B41, task!A$2:I$300, 8, 0)</f>
         <v>5</v>
       </c>
-      <c r="F41" s="29" t="n">
+      <c r="F41" s="27" t="n">
         <f aca="false">VLOOKUP(B41, task!A$2:I$300, 9, 0)</f>
         <v>5.25</v>
       </c>
@@ -9636,19 +9630,19 @@
       <c r="B42" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="28" t="n">
+      <c r="C42" s="26" t="n">
         <f aca="false">VLOOKUP(B42, task!A$2:I$300, 2, 0)</f>
         <v>45849</v>
       </c>
-      <c r="D42" s="28" t="n">
+      <c r="D42" s="26" t="n">
         <f aca="false">VLOOKUP(B42, task!A$2:I$300, 3, 0)</f>
         <v>46119</v>
       </c>
-      <c r="E42" s="29" t="n">
+      <c r="E42" s="27" t="n">
         <f aca="false">VLOOKUP(B42, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F42" s="29" t="n">
+      <c r="F42" s="27" t="n">
         <f aca="false">VLOOKUP(B42, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -9673,19 +9667,19 @@
       <c r="B43" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="28" t="n">
+      <c r="C43" s="26" t="n">
         <f aca="false">VLOOKUP(B43, task!A$2:I$300, 2, 0)</f>
         <v>46120</v>
       </c>
-      <c r="D43" s="28" t="n">
+      <c r="D43" s="26" t="n">
         <f aca="false">VLOOKUP(B43, task!A$2:I$300, 3, 0)</f>
         <v>46142</v>
       </c>
-      <c r="E43" s="29" t="n">
+      <c r="E43" s="27" t="n">
         <f aca="false">VLOOKUP(B43, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F43" s="29" t="n">
+      <c r="F43" s="27" t="n">
         <f aca="false">VLOOKUP(B43, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -9710,19 +9704,19 @@
       <c r="B44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="28" t="n">
+      <c r="C44" s="26" t="n">
         <f aca="false">VLOOKUP(B44, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D44" s="28" t="n">
+      <c r="D44" s="26" t="n">
         <f aca="false">VLOOKUP(B44, task!A$2:I$300, 3, 0)</f>
         <v>45731</v>
       </c>
-      <c r="E44" s="29" t="n">
+      <c r="E44" s="27" t="n">
         <f aca="false">VLOOKUP(B44, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F44" s="29" t="n">
+      <c r="F44" s="27" t="n">
         <f aca="false">VLOOKUP(B44, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -9747,19 +9741,19 @@
       <c r="B45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="28" t="n">
+      <c r="C45" s="26" t="n">
         <f aca="false">VLOOKUP(B45, task!A$2:I$300, 2, 0)</f>
         <v>45749</v>
       </c>
-      <c r="D45" s="28" t="n">
+      <c r="D45" s="26" t="n">
         <f aca="false">VLOOKUP(B45, task!A$2:I$300, 3, 0)</f>
         <v>45794</v>
       </c>
-      <c r="E45" s="29" t="n">
+      <c r="E45" s="27" t="n">
         <f aca="false">VLOOKUP(B45, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="29" t="n">
+      <c r="F45" s="27" t="n">
         <f aca="false">VLOOKUP(B45, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -9784,19 +9778,19 @@
       <c r="B46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="28" t="n">
+      <c r="C46" s="26" t="n">
         <f aca="false">VLOOKUP(B46, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D46" s="28" t="n">
+      <c r="D46" s="26" t="n">
         <f aca="false">VLOOKUP(B46, task!A$2:I$300, 3, 0)</f>
         <v>45748</v>
       </c>
-      <c r="E46" s="29" t="n">
+      <c r="E46" s="27" t="n">
         <f aca="false">VLOOKUP(B46, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F46" s="29" t="n">
+      <c r="F46" s="27" t="n">
         <f aca="false">VLOOKUP(B46, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -9821,19 +9815,19 @@
       <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="28" t="n">
+      <c r="C47" s="26" t="n">
         <f aca="false">VLOOKUP(B47, task!A$2:I$300, 2, 0)</f>
         <v>45749</v>
       </c>
-      <c r="D47" s="28" t="n">
+      <c r="D47" s="26" t="n">
         <f aca="false">VLOOKUP(B47, task!A$2:I$300, 3, 0)</f>
         <v>45779</v>
       </c>
-      <c r="E47" s="29" t="n">
+      <c r="E47" s="27" t="n">
         <f aca="false">VLOOKUP(B47, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="29" t="n">
+      <c r="F47" s="27" t="n">
         <f aca="false">VLOOKUP(B47, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -9858,19 +9852,19 @@
       <c r="B48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="28" t="n">
+      <c r="C48" s="26" t="n">
         <f aca="false">VLOOKUP(B48, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D48" s="28" t="n">
+      <c r="D48" s="26" t="n">
         <f aca="false">VLOOKUP(B48, task!A$2:I$300, 3, 0)</f>
         <v>45789</v>
       </c>
-      <c r="E48" s="29" t="n">
+      <c r="E48" s="27" t="n">
         <f aca="false">VLOOKUP(B48, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F48" s="29" t="n">
+      <c r="F48" s="27" t="n">
         <f aca="false">VLOOKUP(B48, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -9895,19 +9889,19 @@
       <c r="B49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="28" t="n">
+      <c r="C49" s="26" t="n">
         <f aca="false">VLOOKUP(B49, task!A$2:I$300, 2, 0)</f>
         <v>45790</v>
       </c>
-      <c r="D49" s="28" t="n">
+      <c r="D49" s="26" t="n">
         <f aca="false">VLOOKUP(B49, task!A$2:I$300, 3, 0)</f>
         <v>45835</v>
       </c>
-      <c r="E49" s="29" t="n">
+      <c r="E49" s="27" t="n">
         <f aca="false">VLOOKUP(B49, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F49" s="29" t="n">
+      <c r="F49" s="27" t="n">
         <f aca="false">VLOOKUP(B49, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -9932,19 +9926,19 @@
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="28" t="n">
+      <c r="C50" s="26" t="n">
         <f aca="false">VLOOKUP(B50, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D50" s="28" t="n">
+      <c r="D50" s="26" t="n">
         <f aca="false">VLOOKUP(B50, task!A$2:I$300, 3, 0)</f>
         <v>45901</v>
       </c>
-      <c r="E50" s="29" t="n">
+      <c r="E50" s="27" t="n">
         <f aca="false">VLOOKUP(B50, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F50" s="29" t="n">
+      <c r="F50" s="27" t="n">
         <f aca="false">VLOOKUP(B50, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -9969,19 +9963,19 @@
       <c r="B51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="28" t="n">
+      <c r="C51" s="26" t="n">
         <f aca="false">VLOOKUP(B51, task!A$2:I$300, 2, 0)</f>
         <v>45902</v>
       </c>
-      <c r="D51" s="28" t="n">
+      <c r="D51" s="26" t="n">
         <f aca="false">VLOOKUP(B51, task!A$2:I$300, 3, 0)</f>
         <v>45947</v>
       </c>
-      <c r="E51" s="29" t="n">
+      <c r="E51" s="27" t="n">
         <f aca="false">VLOOKUP(B51, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F51" s="29" t="n">
+      <c r="F51" s="27" t="n">
         <f aca="false">VLOOKUP(B51, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -10006,19 +10000,19 @@
       <c r="B52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="28" t="n">
+      <c r="C52" s="26" t="n">
         <f aca="false">VLOOKUP(B52, task!A$2:I$300, 2, 0)</f>
         <v>45717</v>
       </c>
-      <c r="D52" s="28" t="n">
+      <c r="D52" s="26" t="n">
         <f aca="false">VLOOKUP(B52, task!A$2:I$300, 3, 0)</f>
         <v>45740</v>
       </c>
-      <c r="E52" s="29" t="n">
+      <c r="E52" s="27" t="n">
         <f aca="false">VLOOKUP(B52, task!A$2:I$300, 8, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="F52" s="29" t="n">
+      <c r="F52" s="27" t="n">
         <f aca="false">VLOOKUP(B52, task!A$2:I$300, 9, 0)</f>
         <v>1.75</v>
       </c>
@@ -10043,19 +10037,19 @@
       <c r="B53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="28" t="n">
+      <c r="C53" s="26" t="n">
         <f aca="false">VLOOKUP(B53, task!A$2:I$300, 2, 0)</f>
         <v>45741</v>
       </c>
-      <c r="D53" s="28" t="n">
+      <c r="D53" s="26" t="n">
         <f aca="false">VLOOKUP(B53, task!A$2:I$300, 3, 0)</f>
         <v>45870</v>
       </c>
-      <c r="E53" s="29" t="n">
+      <c r="E53" s="27" t="n">
         <f aca="false">VLOOKUP(B53, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="29" t="n">
+      <c r="F53" s="27" t="n">
         <f aca="false">VLOOKUP(B53, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -10080,19 +10074,19 @@
       <c r="B54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="28" t="n">
+      <c r="C54" s="26" t="n">
         <f aca="false">VLOOKUP(B54, task!A$2:I$300, 2, 0)</f>
         <v>45871</v>
       </c>
-      <c r="D54" s="28" t="n">
+      <c r="D54" s="26" t="n">
         <f aca="false">VLOOKUP(B54, task!A$2:I$300, 3, 0)</f>
         <v>45916</v>
       </c>
-      <c r="E54" s="29" t="n">
+      <c r="E54" s="27" t="n">
         <f aca="false">VLOOKUP(B54, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F54" s="29" t="n">
+      <c r="F54" s="27" t="n">
         <f aca="false">VLOOKUP(B54, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -10117,19 +10111,19 @@
       <c r="B55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="28" t="n">
+      <c r="C55" s="26" t="n">
         <f aca="false">VLOOKUP(B55, task!A$2:I$300, 2, 0)</f>
         <v>45737</v>
       </c>
-      <c r="D55" s="28" t="n">
+      <c r="D55" s="26" t="n">
         <f aca="false">VLOOKUP(B55, task!A$2:I$300, 3, 0)</f>
         <v>45766</v>
       </c>
-      <c r="E55" s="29" t="n">
+      <c r="E55" s="27" t="n">
         <f aca="false">VLOOKUP(B55, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F55" s="29" t="n">
+      <c r="F55" s="27" t="n">
         <f aca="false">VLOOKUP(B55, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -10154,19 +10148,19 @@
       <c r="B56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="28" t="n">
+      <c r="C56" s="26" t="n">
         <f aca="false">VLOOKUP(B56, task!A$2:I$300, 2, 0)</f>
         <v>45767</v>
       </c>
-      <c r="D56" s="28" t="n">
+      <c r="D56" s="26" t="n">
         <f aca="false">VLOOKUP(B56, task!A$2:I$300, 3, 0)</f>
         <v>45962</v>
       </c>
-      <c r="E56" s="29" t="n">
+      <c r="E56" s="27" t="n">
         <f aca="false">VLOOKUP(B56, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F56" s="29" t="n">
+      <c r="F56" s="27" t="n">
         <f aca="false">VLOOKUP(B56, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -10191,19 +10185,19 @@
       <c r="B57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="28" t="n">
+      <c r="C57" s="26" t="n">
         <f aca="false">VLOOKUP(B57, task!A$2:I$300, 2, 0)</f>
         <v>45963</v>
       </c>
-      <c r="D57" s="28" t="n">
+      <c r="D57" s="26" t="n">
         <f aca="false">VLOOKUP(B57, task!A$2:I$300, 3, 0)</f>
         <v>45991</v>
       </c>
-      <c r="E57" s="29" t="n">
+      <c r="E57" s="27" t="n">
         <f aca="false">VLOOKUP(B57, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F57" s="29" t="n">
+      <c r="F57" s="27" t="n">
         <f aca="false">VLOOKUP(B57, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -10228,19 +10222,19 @@
       <c r="B58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="28" t="n">
+      <c r="C58" s="26" t="n">
         <f aca="false">VLOOKUP(B58, task!A$2:I$300, 2, 0)</f>
         <v>45823</v>
       </c>
-      <c r="D58" s="28" t="n">
+      <c r="D58" s="26" t="n">
         <f aca="false">VLOOKUP(B58, task!A$2:I$300, 3, 0)</f>
         <v>45853</v>
       </c>
-      <c r="E58" s="29" t="n">
+      <c r="E58" s="27" t="n">
         <f aca="false">VLOOKUP(B58, task!A$2:I$300, 8, 0)</f>
         <v>2.25</v>
       </c>
-      <c r="F58" s="29" t="n">
+      <c r="F58" s="27" t="n">
         <f aca="false">VLOOKUP(B58, task!A$2:I$300, 9, 0)</f>
         <v>2.5</v>
       </c>
@@ -10265,19 +10259,19 @@
       <c r="B59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="28" t="n">
+      <c r="C59" s="26" t="n">
         <f aca="false">VLOOKUP(B59, task!A$2:I$300, 2, 0)</f>
         <v>45854</v>
       </c>
-      <c r="D59" s="28" t="n">
+      <c r="D59" s="26" t="n">
         <f aca="false">VLOOKUP(B59, task!A$2:I$300, 3, 0)</f>
         <v>45984</v>
       </c>
-      <c r="E59" s="29" t="n">
+      <c r="E59" s="27" t="n">
         <f aca="false">VLOOKUP(B59, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F59" s="29" t="n">
+      <c r="F59" s="27" t="n">
         <f aca="false">VLOOKUP(B59, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -10302,19 +10296,19 @@
       <c r="B60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="28" t="n">
+      <c r="C60" s="26" t="n">
         <f aca="false">VLOOKUP(B60, task!A$2:I$300, 2, 0)</f>
         <v>45985</v>
       </c>
-      <c r="D60" s="28" t="n">
+      <c r="D60" s="26" t="n">
         <f aca="false">VLOOKUP(B60, task!A$2:I$300, 3, 0)</f>
         <v>45992</v>
       </c>
-      <c r="E60" s="29" t="n">
+      <c r="E60" s="27" t="n">
         <f aca="false">VLOOKUP(B60, task!A$2:I$300, 8, 0)</f>
         <v>3.25</v>
       </c>
-      <c r="F60" s="29" t="n">
+      <c r="F60" s="27" t="n">
         <f aca="false">VLOOKUP(B60, task!A$2:I$300, 9, 0)</f>
         <v>3.5</v>
       </c>
@@ -10339,19 +10333,19 @@
       <c r="B61" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="28" t="n">
+      <c r="C61" s="26" t="n">
         <f aca="false">VLOOKUP(B61, task!A$2:I$300, 2, 0)</f>
         <v>45684</v>
       </c>
-      <c r="D61" s="28" t="n">
+      <c r="D61" s="26" t="n">
         <f aca="false">VLOOKUP(B61, task!A$2:I$300, 3, 0)</f>
         <v>45689</v>
       </c>
-      <c r="E61" s="29" t="n">
+      <c r="E61" s="27" t="n">
         <f aca="false">VLOOKUP(B61, task!A$2:I$300, 8, 0)</f>
         <v>2</v>
       </c>
-      <c r="F61" s="29" t="n">
+      <c r="F61" s="27" t="n">
         <f aca="false">VLOOKUP(B61, task!A$2:I$300, 9, 0)</f>
         <v>2.25</v>
       </c>
@@ -10376,19 +10370,19 @@
       <c r="B62" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="28" t="n">
+      <c r="C62" s="26" t="n">
         <f aca="false">VLOOKUP(B62, task!A$2:I$300, 2, 0)</f>
         <v>45690</v>
       </c>
-      <c r="D62" s="28" t="n">
+      <c r="D62" s="26" t="n">
         <f aca="false">VLOOKUP(B62, task!A$2:I$300, 3, 0)</f>
         <v>45735</v>
       </c>
-      <c r="E62" s="29" t="n">
+      <c r="E62" s="27" t="n">
         <f aca="false">VLOOKUP(B62, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F62" s="29" t="n">
+      <c r="F62" s="27" t="n">
         <f aca="false">VLOOKUP(B62, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -10413,19 +10407,19 @@
       <c r="B63" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="28" t="n">
+      <c r="C63" s="26" t="n">
         <f aca="false">VLOOKUP(B63, task!A$2:I$300, 2, 0)</f>
         <v>45736</v>
       </c>
-      <c r="D63" s="28" t="n">
+      <c r="D63" s="26" t="n">
         <f aca="false">VLOOKUP(B63, task!A$2:I$300, 3, 0)</f>
         <v>45748</v>
       </c>
-      <c r="E63" s="29" t="n">
+      <c r="E63" s="27" t="n">
         <f aca="false">VLOOKUP(B63, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F63" s="29" t="n">
+      <c r="F63" s="27" t="n">
         <f aca="false">VLOOKUP(B63, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -10450,19 +10444,19 @@
       <c r="B64" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="28" t="n">
+      <c r="C64" s="26" t="n">
         <f aca="false">VLOOKUP(B64, task!A$2:I$300, 2, 0)</f>
         <v>45662</v>
       </c>
-      <c r="D64" s="28" t="n">
+      <c r="D64" s="26" t="n">
         <f aca="false">VLOOKUP(B64, task!A$2:I$300, 3, 0)</f>
         <v>45672</v>
       </c>
-      <c r="E64" s="29" t="n">
+      <c r="E64" s="27" t="n">
         <f aca="false">VLOOKUP(B64, task!A$2:I$300, 8, 0)</f>
         <v>6.25</v>
       </c>
-      <c r="F64" s="29" t="n">
+      <c r="F64" s="27" t="n">
         <f aca="false">VLOOKUP(B64, task!A$2:I$300, 9, 0)</f>
         <v>6.5</v>
       </c>
@@ -10487,19 +10481,19 @@
       <c r="B65" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="28" t="n">
+      <c r="C65" s="26" t="n">
         <f aca="false">VLOOKUP(B65, task!A$2:I$300, 2, 0)</f>
         <v>45673</v>
       </c>
-      <c r="D65" s="28" t="n">
+      <c r="D65" s="26" t="n">
         <f aca="false">VLOOKUP(B65, task!A$2:I$300, 3, 0)</f>
         <v>45853</v>
       </c>
-      <c r="E65" s="29" t="n">
+      <c r="E65" s="27" t="n">
         <f aca="false">VLOOKUP(B65, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F65" s="29" t="n">
+      <c r="F65" s="27" t="n">
         <f aca="false">VLOOKUP(B65, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -10524,19 +10518,19 @@
       <c r="B66" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="28" t="n">
+      <c r="C66" s="26" t="n">
         <f aca="false">VLOOKUP(B66, task!A$2:I$300, 2, 0)</f>
         <v>45854</v>
       </c>
-      <c r="D66" s="28" t="n">
+      <c r="D66" s="26" t="n">
         <f aca="false">VLOOKUP(B66, task!A$2:I$300, 3, 0)</f>
         <v>45873</v>
       </c>
-      <c r="E66" s="29" t="n">
+      <c r="E66" s="27" t="n">
         <f aca="false">VLOOKUP(B66, task!A$2:I$300, 8, 0)</f>
         <v>2.75</v>
       </c>
-      <c r="F66" s="29" t="n">
+      <c r="F66" s="27" t="n">
         <f aca="false">VLOOKUP(B66, task!A$2:I$300, 9, 0)</f>
         <v>3</v>
       </c>
@@ -10561,19 +10555,19 @@
       <c r="B67" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="28" t="n">
+      <c r="C67" s="26" t="n">
         <f aca="false">VLOOKUP(B67, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D67" s="28" t="n">
+      <c r="D67" s="26" t="n">
         <f aca="false">VLOOKUP(B67, task!A$2:I$300, 3, 0)</f>
         <v>45738</v>
       </c>
-      <c r="E67" s="29" t="n">
+      <c r="E67" s="27" t="n">
         <f aca="false">VLOOKUP(B67, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F67" s="29" t="n">
+      <c r="F67" s="27" t="n">
         <f aca="false">VLOOKUP(B67, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -10598,19 +10592,19 @@
       <c r="B68" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="28" t="n">
+      <c r="C68" s="26" t="n">
         <f aca="false">VLOOKUP(B68, task!A$2:I$300, 2, 0)</f>
         <v>45739</v>
       </c>
-      <c r="D68" s="28" t="n">
+      <c r="D68" s="26" t="n">
         <f aca="false">VLOOKUP(B68, task!A$2:I$300, 3, 0)</f>
         <v>45748</v>
       </c>
-      <c r="E68" s="29" t="n">
+      <c r="E68" s="27" t="n">
         <f aca="false">VLOOKUP(B68, task!A$2:I$300, 8, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="F68" s="29" t="n">
+      <c r="F68" s="27" t="n">
         <f aca="false">VLOOKUP(B68, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
@@ -10635,19 +10629,19 @@
       <c r="B69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="28" t="n">
+      <c r="C69" s="26" t="n">
         <f aca="false">VLOOKUP(B69, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D69" s="28" t="n">
+      <c r="D69" s="26" t="n">
         <f aca="false">VLOOKUP(B69, task!A$2:I$300, 3, 0)</f>
         <v>45828</v>
       </c>
-      <c r="E69" s="29" t="n">
+      <c r="E69" s="27" t="n">
         <f aca="false">VLOOKUP(B69, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F69" s="29" t="n">
+      <c r="F69" s="27" t="n">
         <f aca="false">VLOOKUP(B69, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -10672,19 +10666,19 @@
       <c r="B70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="28" t="n">
+      <c r="C70" s="26" t="n">
         <f aca="false">VLOOKUP(B70, task!A$2:I$300, 2, 0)</f>
         <v>45829</v>
       </c>
-      <c r="D70" s="28" t="n">
+      <c r="D70" s="26" t="n">
         <f aca="false">VLOOKUP(B70, task!A$2:I$300, 3, 0)</f>
         <v>45839</v>
       </c>
-      <c r="E70" s="29" t="n">
+      <c r="E70" s="27" t="n">
         <f aca="false">VLOOKUP(B70, task!A$2:I$300, 8, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="F70" s="29" t="n">
+      <c r="F70" s="27" t="n">
         <f aca="false">VLOOKUP(B70, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
@@ -10709,19 +10703,19 @@
       <c r="B71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="28" t="n">
+      <c r="C71" s="26" t="n">
         <f aca="false">VLOOKUP(B71, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D71" s="28" t="n">
+      <c r="D71" s="26" t="n">
         <f aca="false">VLOOKUP(B71, task!A$2:I$300, 3, 0)</f>
         <v>45678</v>
       </c>
-      <c r="E71" s="29" t="n">
+      <c r="E71" s="27" t="n">
         <f aca="false">VLOOKUP(B71, task!A$2:I$300, 8, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="F71" s="29" t="n">
+      <c r="F71" s="27" t="n">
         <f aca="false">VLOOKUP(B71, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
@@ -10746,19 +10740,19 @@
       <c r="B72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="28" t="n">
+      <c r="C72" s="26" t="n">
         <f aca="false">VLOOKUP(B72, task!A$2:I$300, 2, 0)</f>
         <v>45679</v>
       </c>
-      <c r="D72" s="28" t="n">
+      <c r="D72" s="26" t="n">
         <f aca="false">VLOOKUP(B72, task!A$2:I$300, 3, 0)</f>
         <v>45726</v>
       </c>
-      <c r="E72" s="29" t="n">
+      <c r="E72" s="27" t="n">
         <f aca="false">VLOOKUP(B72, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F72" s="29" t="n">
+      <c r="F72" s="27" t="n">
         <f aca="false">VLOOKUP(B72, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -10783,19 +10777,19 @@
       <c r="B73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="28" t="n">
+      <c r="C73" s="26" t="n">
         <f aca="false">VLOOKUP(B73, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D73" s="28" t="n">
+      <c r="D73" s="26" t="n">
         <f aca="false">VLOOKUP(B73, task!A$2:I$300, 3, 0)</f>
         <v>45738</v>
       </c>
-      <c r="E73" s="29" t="n">
+      <c r="E73" s="27" t="n">
         <f aca="false">VLOOKUP(B73, task!A$2:I$300, 8, 0)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="29" t="n">
+      <c r="F73" s="27" t="n">
         <f aca="false">VLOOKUP(B73, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
@@ -10820,19 +10814,19 @@
       <c r="B74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="28" t="n">
+      <c r="C74" s="26" t="n">
         <f aca="false">VLOOKUP(B74, task!A$2:I$300, 2, 0)</f>
         <v>45739</v>
       </c>
-      <c r="D74" s="28" t="n">
+      <c r="D74" s="26" t="n">
         <f aca="false">VLOOKUP(B74, task!A$2:I$300, 3, 0)</f>
         <v>45748</v>
       </c>
-      <c r="E74" s="29" t="n">
+      <c r="E74" s="27" t="n">
         <f aca="false">VLOOKUP(B74, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F74" s="29" t="n">
+      <c r="F74" s="27" t="n">
         <f aca="false">VLOOKUP(B74, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -10857,19 +10851,19 @@
       <c r="B75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="28" t="n">
+      <c r="C75" s="26" t="n">
         <f aca="false">VLOOKUP(B75, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D75" s="28" t="n">
+      <c r="D75" s="26" t="n">
         <f aca="false">VLOOKUP(B75, task!A$2:I$300, 3, 0)</f>
         <v>45678</v>
       </c>
-      <c r="E75" s="29" t="n">
+      <c r="E75" s="27" t="n">
         <f aca="false">VLOOKUP(B75, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F75" s="29" t="n">
+      <c r="F75" s="27" t="n">
         <f aca="false">VLOOKUP(B75, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -10894,19 +10888,19 @@
       <c r="B76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="28" t="n">
+      <c r="C76" s="26" t="n">
         <f aca="false">VLOOKUP(B76, task!A$2:I$300, 2, 0)</f>
         <v>45679</v>
       </c>
-      <c r="D76" s="28" t="n">
+      <c r="D76" s="26" t="n">
         <f aca="false">VLOOKUP(B76, task!A$2:I$300, 3, 0)</f>
         <v>45691</v>
       </c>
-      <c r="E76" s="29" t="n">
+      <c r="E76" s="27" t="n">
         <f aca="false">VLOOKUP(B76, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F76" s="29" t="n">
+      <c r="F76" s="27" t="n">
         <f aca="false">VLOOKUP(B76, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -10931,19 +10925,19 @@
       <c r="B77" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="28" t="n">
+      <c r="C77" s="26" t="n">
         <f aca="false">VLOOKUP(B77, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D77" s="28" t="n">
+      <c r="D77" s="26" t="n">
         <f aca="false">VLOOKUP(B77, task!A$2:I$300, 3, 0)</f>
         <v>45738</v>
       </c>
-      <c r="E77" s="29" t="n">
+      <c r="E77" s="27" t="n">
         <f aca="false">VLOOKUP(B77, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F77" s="29" t="n">
+      <c r="F77" s="27" t="n">
         <f aca="false">VLOOKUP(B77, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -10968,19 +10962,19 @@
       <c r="B78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="28" t="n">
+      <c r="C78" s="26" t="n">
         <f aca="false">VLOOKUP(B78, task!A$2:I$300, 2, 0)</f>
         <v>45739</v>
       </c>
-      <c r="D78" s="28" t="n">
+      <c r="D78" s="26" t="n">
         <f aca="false">VLOOKUP(B78, task!A$2:I$300, 3, 0)</f>
         <v>45747</v>
       </c>
-      <c r="E78" s="29" t="n">
+      <c r="E78" s="27" t="n">
         <f aca="false">VLOOKUP(B78, task!A$2:I$300, 8, 0)</f>
         <v>2.5</v>
       </c>
-      <c r="F78" s="29" t="n">
+      <c r="F78" s="27" t="n">
         <f aca="false">VLOOKUP(B78, task!A$2:I$300, 9, 0)</f>
         <v>2.75</v>
       </c>
@@ -11005,19 +10999,19 @@
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C79" s="28" t="n">
+      <c r="C79" s="26" t="n">
         <f aca="false">VLOOKUP(B79, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D79" s="28" t="n">
+      <c r="D79" s="26" t="n">
         <f aca="false">VLOOKUP(B79, task!A$2:I$300, 3, 0)</f>
         <v>45703</v>
       </c>
-      <c r="E79" s="29" t="n">
+      <c r="E79" s="27" t="n">
         <f aca="false">VLOOKUP(B79, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F79" s="29" t="n">
+      <c r="F79" s="27" t="n">
         <f aca="false">VLOOKUP(B79, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -11042,19 +11036,19 @@
       <c r="B80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="28" t="n">
+      <c r="C80" s="26" t="n">
         <f aca="false">VLOOKUP(B80, task!A$2:I$300, 2, 0)</f>
         <v>45704</v>
       </c>
-      <c r="D80" s="28" t="n">
+      <c r="D80" s="26" t="n">
         <f aca="false">VLOOKUP(B80, task!A$2:I$300, 3, 0)</f>
         <v>45713</v>
       </c>
-      <c r="E80" s="29" t="n">
+      <c r="E80" s="27" t="n">
         <f aca="false">VLOOKUP(B80, task!A$2:I$300, 8, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="F80" s="29" t="n">
+      <c r="F80" s="27" t="n">
         <f aca="false">VLOOKUP(B80, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
@@ -11079,19 +11073,19 @@
       <c r="B81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C81" s="28" t="n">
+      <c r="C81" s="26" t="n">
         <f aca="false">VLOOKUP(B81, task!A$2:I$300, 2, 0)</f>
         <v>45689</v>
       </c>
-      <c r="D81" s="28" t="n">
+      <c r="D81" s="26" t="n">
         <f aca="false">VLOOKUP(B81, task!A$2:I$300, 3, 0)</f>
         <v>45704</v>
       </c>
-      <c r="E81" s="29" t="n">
+      <c r="E81" s="27" t="n">
         <f aca="false">VLOOKUP(B81, task!A$2:I$300, 8, 0)</f>
         <v>5</v>
       </c>
-      <c r="F81" s="29" t="n">
+      <c r="F81" s="27" t="n">
         <f aca="false">VLOOKUP(B81, task!A$2:I$300, 9, 0)</f>
         <v>5.25</v>
       </c>
@@ -11116,19 +11110,19 @@
       <c r="B82" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="28" t="n">
+      <c r="C82" s="26" t="n">
         <f aca="false">VLOOKUP(B82, task!A$2:I$300, 2, 0)</f>
         <v>45705</v>
       </c>
-      <c r="D82" s="28" t="n">
+      <c r="D82" s="26" t="n">
         <f aca="false">VLOOKUP(B82, task!A$2:I$300, 3, 0)</f>
         <v>45915</v>
       </c>
-      <c r="E82" s="29" t="n">
+      <c r="E82" s="27" t="n">
         <f aca="false">VLOOKUP(B82, task!A$2:I$300, 8, 0)</f>
         <v>1</v>
       </c>
-      <c r="F82" s="29" t="n">
+      <c r="F82" s="27" t="n">
         <f aca="false">VLOOKUP(B82, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
@@ -11153,19 +11147,19 @@
       <c r="B83" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="28" t="n">
+      <c r="C83" s="26" t="n">
         <f aca="false">VLOOKUP(B83, task!A$2:I$300, 2, 0)</f>
         <v>45916</v>
       </c>
-      <c r="D83" s="28" t="n">
+      <c r="D83" s="26" t="n">
         <f aca="false">VLOOKUP(B83, task!A$2:I$300, 3, 0)</f>
         <v>45931</v>
       </c>
-      <c r="E83" s="29" t="n">
+      <c r="E83" s="27" t="n">
         <f aca="false">VLOOKUP(B83, task!A$2:I$300, 8, 0)</f>
         <v>2.5</v>
       </c>
-      <c r="F83" s="29" t="n">
+      <c r="F83" s="27" t="n">
         <f aca="false">VLOOKUP(B83, task!A$2:I$300, 9, 0)</f>
         <v>2.75</v>
       </c>
@@ -11190,19 +11184,19 @@
       <c r="B84" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="28" t="n">
+      <c r="C84" s="26" t="n">
         <f aca="false">VLOOKUP(B84, task!A$2:I$300, 2, 0)</f>
         <v>45778</v>
       </c>
-      <c r="D84" s="28" t="n">
+      <c r="D84" s="26" t="n">
         <f aca="false">VLOOKUP(B84, task!A$2:I$300, 3, 0)</f>
         <v>45793</v>
       </c>
-      <c r="E84" s="29" t="n">
+      <c r="E84" s="27" t="n">
         <f aca="false">VLOOKUP(B84, task!A$2:I$300, 8, 0)</f>
         <v>4.5</v>
       </c>
-      <c r="F84" s="29" t="n">
+      <c r="F84" s="27" t="n">
         <f aca="false">VLOOKUP(B84, task!A$2:I$300, 9, 0)</f>
         <v>4.75</v>
       </c>
@@ -11227,19 +11221,19 @@
       <c r="B85" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="28" t="n">
+      <c r="C85" s="26" t="n">
         <f aca="false">VLOOKUP(B85, task!A$2:I$300, 2, 0)</f>
         <v>45794</v>
       </c>
-      <c r="D85" s="28" t="n">
+      <c r="D85" s="26" t="n">
         <f aca="false">VLOOKUP(B85, task!A$2:I$300, 3, 0)</f>
         <v>46064</v>
       </c>
-      <c r="E85" s="29" t="n">
+      <c r="E85" s="27" t="n">
         <f aca="false">VLOOKUP(B85, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F85" s="29" t="n">
+      <c r="F85" s="27" t="n">
         <f aca="false">VLOOKUP(B85, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -11264,19 +11258,19 @@
       <c r="B86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="28" t="n">
+      <c r="C86" s="26" t="n">
         <f aca="false">VLOOKUP(B86, task!A$2:I$300, 2, 0)</f>
         <v>46065</v>
       </c>
-      <c r="D86" s="28" t="n">
+      <c r="D86" s="26" t="n">
         <f aca="false">VLOOKUP(B86, task!A$2:I$300, 3, 0)</f>
         <v>46083</v>
       </c>
-      <c r="E86" s="29" t="n">
+      <c r="E86" s="27" t="n">
         <f aca="false">VLOOKUP(B86, task!A$2:I$300, 8, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="F86" s="29" t="n">
+      <c r="F86" s="27" t="n">
         <f aca="false">VLOOKUP(B86, task!A$2:I$300, 9, 0)</f>
         <v>1.75</v>
       </c>
@@ -11301,19 +11295,19 @@
       <c r="B87" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="28" t="n">
+      <c r="C87" s="26" t="n">
         <f aca="false">VLOOKUP(B87, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D87" s="28" t="n">
+      <c r="D87" s="26" t="n">
         <f aca="false">VLOOKUP(B87, task!A$2:I$300, 3, 0)</f>
         <v>45733</v>
       </c>
-      <c r="E87" s="29" t="n">
+      <c r="E87" s="27" t="n">
         <f aca="false">VLOOKUP(B87, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F87" s="29" t="n">
+      <c r="F87" s="27" t="n">
         <f aca="false">VLOOKUP(B87, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -11338,19 +11332,19 @@
       <c r="B88" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C88" s="28" t="n">
+      <c r="C88" s="26" t="n">
         <f aca="false">VLOOKUP(B88, task!A$2:I$300, 2, 0)</f>
         <v>45734</v>
       </c>
-      <c r="D88" s="28" t="n">
+      <c r="D88" s="26" t="n">
         <f aca="false">VLOOKUP(B88, task!A$2:I$300, 3, 0)</f>
         <v>45741</v>
       </c>
-      <c r="E88" s="29" t="n">
+      <c r="E88" s="27" t="n">
         <f aca="false">VLOOKUP(B88, task!A$2:I$300, 8, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="F88" s="29" t="n">
+      <c r="F88" s="27" t="n">
         <f aca="false">VLOOKUP(B88, task!A$2:I$300, 9, 0)</f>
         <v>1.75</v>
       </c>
@@ -11375,19 +11369,19 @@
       <c r="B89" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C89" s="28" t="n">
+      <c r="C89" s="26" t="n">
         <f aca="false">VLOOKUP(B89, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D89" s="28" t="n">
+      <c r="D89" s="26" t="n">
         <f aca="false">VLOOKUP(B89, task!A$2:I$300, 3, 0)</f>
         <v>45713</v>
       </c>
-      <c r="E89" s="29" t="n">
+      <c r="E89" s="27" t="n">
         <f aca="false">VLOOKUP(B89, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F89" s="29" t="n">
+      <c r="F89" s="27" t="n">
         <f aca="false">VLOOKUP(B89, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -11412,19 +11406,19 @@
       <c r="B90" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="28" t="n">
+      <c r="C90" s="26" t="n">
         <f aca="false">VLOOKUP(B90, task!A$2:I$300, 2, 0)</f>
         <v>45714</v>
       </c>
-      <c r="D90" s="28" t="n">
+      <c r="D90" s="26" t="n">
         <f aca="false">VLOOKUP(B90, task!A$2:I$300, 3, 0)</f>
         <v>45719</v>
       </c>
-      <c r="E90" s="29" t="n">
+      <c r="E90" s="27" t="n">
         <f aca="false">VLOOKUP(B90, task!A$2:I$300, 8, 0)</f>
         <v>3.75</v>
       </c>
-      <c r="F90" s="29" t="n">
+      <c r="F90" s="27" t="n">
         <f aca="false">VLOOKUP(B90, task!A$2:I$300, 9, 0)</f>
         <v>4</v>
       </c>
@@ -11449,19 +11443,19 @@
       <c r="B91" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="28" t="n">
+      <c r="C91" s="26" t="n">
         <f aca="false">VLOOKUP(B91, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D91" s="28" t="n">
+      <c r="D91" s="26" t="n">
         <f aca="false">VLOOKUP(B91, task!A$2:I$300, 3, 0)</f>
         <v>45743</v>
       </c>
-      <c r="E91" s="29" t="n">
+      <c r="E91" s="27" t="n">
         <f aca="false">VLOOKUP(B91, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F91" s="29" t="n">
+      <c r="F91" s="27" t="n">
         <f aca="false">VLOOKUP(B91, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -11486,19 +11480,19 @@
       <c r="B92" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="28" t="n">
+      <c r="C92" s="26" t="n">
         <f aca="false">VLOOKUP(B92, task!A$2:I$300, 2, 0)</f>
         <v>45744</v>
       </c>
-      <c r="D92" s="28" t="n">
+      <c r="D92" s="26" t="n">
         <f aca="false">VLOOKUP(B92, task!A$2:I$300, 3, 0)</f>
         <v>45754</v>
       </c>
-      <c r="E92" s="29" t="n">
+      <c r="E92" s="27" t="n">
         <f aca="false">VLOOKUP(B92, task!A$2:I$300, 8, 0)</f>
         <v>2.75</v>
       </c>
-      <c r="F92" s="29" t="n">
+      <c r="F92" s="27" t="n">
         <f aca="false">VLOOKUP(B92, task!A$2:I$300, 9, 0)</f>
         <v>3</v>
       </c>
@@ -11523,19 +11517,19 @@
       <c r="B93" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="28" t="n">
+      <c r="C93" s="26" t="n">
         <f aca="false">VLOOKUP(B93, task!A$2:I$300, 2, 0)</f>
         <v>45658</v>
       </c>
-      <c r="D93" s="28" t="n">
+      <c r="D93" s="26" t="n">
         <f aca="false">VLOOKUP(B93, task!A$2:I$300, 3, 0)</f>
         <v>45798</v>
       </c>
-      <c r="E93" s="29" t="n">
+      <c r="E93" s="27" t="n">
         <f aca="false">VLOOKUP(B93, task!A$2:I$300, 8, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="F93" s="29" t="n">
+      <c r="F93" s="27" t="n">
         <f aca="false">VLOOKUP(B93, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
@@ -11560,19 +11554,19 @@
       <c r="B94" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="28" t="n">
+      <c r="C94" s="26" t="n">
         <f aca="false">VLOOKUP(B94, task!A$2:I$300, 2, 0)</f>
         <v>45799</v>
       </c>
-      <c r="D94" s="28" t="n">
+      <c r="D94" s="26" t="n">
         <f aca="false">VLOOKUP(B94, task!A$2:I$300, 3, 0)</f>
         <v>45810</v>
       </c>
-      <c r="E94" s="29" t="n">
+      <c r="E94" s="27" t="n">
         <f aca="false">VLOOKUP(B94, task!A$2:I$300, 8, 0)</f>
         <v>1.75</v>
       </c>
-      <c r="F94" s="29" t="n">
+      <c r="F94" s="27" t="n">
         <f aca="false">VLOOKUP(B94, task!A$2:I$300, 9, 0)</f>
         <v>2</v>
       </c>
@@ -11597,19 +11591,19 @@
       <c r="B95" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C95" s="28" t="n">
+      <c r="C95" s="26" t="n">
         <f aca="false">VLOOKUP(B95, task!A$2:I$300, 2, 0)</f>
         <v>45731</v>
       </c>
-      <c r="D95" s="28" t="n">
+      <c r="D95" s="26" t="n">
         <f aca="false">VLOOKUP(B95, task!A$2:I$300, 3, 0)</f>
         <v>45756</v>
       </c>
-      <c r="E95" s="29" t="n">
+      <c r="E95" s="27" t="n">
         <f aca="false">VLOOKUP(B95, task!A$2:I$300, 8, 0)</f>
         <v>3.25</v>
       </c>
-      <c r="F95" s="29" t="n">
+      <c r="F95" s="27" t="n">
         <f aca="false">VLOOKUP(B95, task!A$2:I$300, 9, 0)</f>
         <v>3.5</v>
       </c>
@@ -11634,19 +11628,19 @@
       <c r="B96" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C96" s="28" t="n">
+      <c r="C96" s="26" t="n">
         <f aca="false">VLOOKUP(B96, task!A$2:I$300, 2, 0)</f>
         <v>45757</v>
       </c>
-      <c r="D96" s="28" t="n">
+      <c r="D96" s="26" t="n">
         <f aca="false">VLOOKUP(B96, task!A$2:I$300, 3, 0)</f>
         <v>45887</v>
       </c>
-      <c r="E96" s="29" t="n">
+      <c r="E96" s="27" t="n">
         <f aca="false">VLOOKUP(B96, task!A$2:I$300, 8, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="F96" s="29" t="n">
+      <c r="F96" s="27" t="n">
         <f aca="false">VLOOKUP(B96, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
@@ -11671,19 +11665,19 @@
       <c r="B97" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="28" t="n">
+      <c r="C97" s="26" t="n">
         <f aca="false">VLOOKUP(B97, task!A$2:I$300, 2, 0)</f>
         <v>45888</v>
       </c>
-      <c r="D97" s="28" t="n">
+      <c r="D97" s="26" t="n">
         <f aca="false">VLOOKUP(B97, task!A$2:I$300, 3, 0)</f>
         <v>45901</v>
       </c>
-      <c r="E97" s="29" t="n">
+      <c r="E97" s="27" t="n">
         <f aca="false">VLOOKUP(B97, task!A$2:I$300, 8, 0)</f>
         <v>2</v>
       </c>
-      <c r="F97" s="29" t="n">
+      <c r="F97" s="27" t="n">
         <f aca="false">VLOOKUP(B97, task!A$2:I$300, 9, 0)</f>
         <v>2.25</v>
       </c>
@@ -11702,7 +11696,7 @@
       <c r="J97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="30"/>
+      <c r="I98" s="28"/>
       <c r="J98" s="6"/>
     </row>
   </sheetData>
@@ -11744,70 +11738,70 @@
       <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -12203,16 +12197,16 @@
       <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6"/>
@@ -12407,13 +12401,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="32" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="34" t="n">
+      <c r="C2" s="32" t="n">
         <v>45672</v>
       </c>
       <c r="D2" s="2" t="b">
@@ -12422,13 +12416,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="34" t="n">
+      <c r="B3" s="32" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="34" t="n">
+      <c r="C3" s="32" t="n">
         <v>45701</v>
       </c>
       <c r="D3" s="2" t="b">
@@ -12437,13 +12431,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="36" t="n">
+      <c r="B4" s="34" t="n">
         <v>45702</v>
       </c>
-      <c r="C4" s="36" t="n">
+      <c r="C4" s="34" t="n">
         <v>45732</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -12452,13 +12446,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="36" t="n">
+      <c r="B5" s="34" t="n">
         <v>45733</v>
       </c>
-      <c r="C5" s="36" t="n">
+      <c r="C5" s="34" t="n">
         <v>45761</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -12467,13 +12461,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="34" t="n">
         <v>45762</v>
       </c>
-      <c r="C6" s="36" t="n">
+      <c r="C6" s="34" t="n">
         <v>45795</v>
       </c>
       <c r="D6" s="2" t="b">
@@ -12482,13 +12476,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="36" t="n">
+      <c r="B7" s="34" t="n">
         <v>45796</v>
       </c>
-      <c r="C7" s="36" t="n">
+      <c r="C7" s="34" t="n">
         <v>45826</v>
       </c>
       <c r="D7" s="2" t="b">
@@ -12497,13 +12491,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="36" t="n">
+      <c r="C8" s="34" t="n">
         <v>45855</v>
       </c>
       <c r="D8" s="2" t="b">
@@ -12512,13 +12506,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="36" t="n">
+      <c r="B9" s="34" t="n">
         <v>45856</v>
       </c>
-      <c r="C9" s="36" t="n">
+      <c r="C9" s="34" t="n">
         <v>45886</v>
       </c>
       <c r="D9" s="2" t="b">
@@ -12527,7 +12521,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>124</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -12542,7 +12536,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>125</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -12557,7 +12551,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -12572,7 +12566,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -12752,7 +12746,7 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
@@ -12762,13 +12756,13 @@
       <c r="A1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="4" t="b">
@@ -12784,7 +12778,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -12806,7 +12800,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -12828,7 +12822,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -12850,7 +12844,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -12872,7 +12866,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -12894,7 +12888,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -12916,7 +12910,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -12938,7 +12932,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -12960,7 +12954,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -12982,7 +12976,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -13004,7 +12998,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>126</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -13026,7 +13020,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -13048,7 +13042,7 @@
       <c r="A14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="21" t="n">
@@ -13070,7 +13064,7 @@
       <c r="A15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="21" t="n">
@@ -13092,7 +13086,7 @@
       <c r="A16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="21" t="n">
@@ -13114,7 +13108,7 @@
       <c r="A17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="21" t="n">
@@ -13136,7 +13130,7 @@
       <c r="A18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C18" s="21" t="n">
@@ -13158,7 +13152,7 @@
       <c r="A19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>121</v>
       </c>
       <c r="C19" s="21" t="n">
@@ -13180,7 +13174,7 @@
       <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="21" t="n">
@@ -13202,7 +13196,7 @@
       <c r="A21" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C21" s="21" t="n">
@@ -13224,7 +13218,7 @@
       <c r="A22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>124</v>
       </c>
       <c r="C22" s="21" t="n">
@@ -13246,7 +13240,7 @@
       <c r="A23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>125</v>
       </c>
       <c r="C23" s="21" t="n">
@@ -13268,7 +13262,7 @@
       <c r="A24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>126</v>
       </c>
       <c r="C24" s="21" t="n">
@@ -13290,7 +13284,7 @@
       <c r="A25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="21" t="n">
@@ -13312,7 +13306,7 @@
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="31" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="1" t="n">
@@ -13334,7 +13328,7 @@
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="1" t="n">
@@ -13356,7 +13350,7 @@
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C28" s="1" t="n">
@@ -13378,7 +13372,7 @@
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C29" s="1" t="n">
@@ -13400,7 +13394,7 @@
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C30" s="1" t="n">
@@ -13422,7 +13416,7 @@
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="1" t="n">
@@ -13444,7 +13438,7 @@
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C32" s="1" t="n">
@@ -13466,7 +13460,7 @@
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C33" s="1" t="n">
@@ -13488,7 +13482,7 @@
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C34" s="1" t="n">
@@ -13510,7 +13504,7 @@
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="33" t="s">
         <v>125</v>
       </c>
       <c r="C35" s="1" t="n">
@@ -13532,7 +13526,7 @@
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="33" t="s">
         <v>126</v>
       </c>
       <c r="C36" s="1" t="n">
@@ -13554,7 +13548,7 @@
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="1" t="n">
@@ -13576,7 +13570,7 @@
       <c r="A38" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C38" s="21" t="n">
@@ -13598,7 +13592,7 @@
       <c r="A39" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C39" s="21" t="n">
@@ -13620,7 +13614,7 @@
       <c r="A40" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="37" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="21" t="n">
@@ -13642,7 +13636,7 @@
       <c r="A41" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="37" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="21" t="n">
@@ -13664,7 +13658,7 @@
       <c r="A42" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C42" s="21" t="n">
@@ -13686,7 +13680,7 @@
       <c r="A43" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="37" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="21" t="n">
@@ -13708,7 +13702,7 @@
       <c r="A44" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="37" t="s">
         <v>122</v>
       </c>
       <c r="C44" s="21" t="n">
@@ -13730,7 +13724,7 @@
       <c r="A45" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="21" t="n">
@@ -13752,7 +13746,7 @@
       <c r="A46" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="37" t="s">
         <v>124</v>
       </c>
       <c r="C46" s="21" t="n">
@@ -13774,7 +13768,7 @@
       <c r="A47" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="37" t="s">
         <v>125</v>
       </c>
       <c r="C47" s="21" t="n">
@@ -13796,7 +13790,7 @@
       <c r="A48" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="37" t="s">
         <v>126</v>
       </c>
       <c r="C48" s="21" t="n">
@@ -13818,7 +13812,7 @@
       <c r="A49" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C49" s="21" t="n">
@@ -13840,7 +13834,7 @@
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="31" t="s">
         <v>116</v>
       </c>
       <c r="C50" s="1" t="n">
@@ -13862,7 +13856,7 @@
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="1" t="n">
@@ -13884,7 +13878,7 @@
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C52" s="1" t="n">
@@ -13906,7 +13900,7 @@
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="1" t="n">
@@ -13928,7 +13922,7 @@
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C54" s="1" t="n">
@@ -13950,7 +13944,7 @@
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C55" s="1" t="n">
@@ -13972,7 +13966,7 @@
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="1" t="n">
@@ -13994,7 +13988,7 @@
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C57" s="1" t="n">
@@ -14016,7 +14010,7 @@
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="33" t="s">
         <v>124</v>
       </c>
       <c r="C58" s="1" t="n">
@@ -14038,7 +14032,7 @@
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="33" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="1" t="n">
@@ -14060,7 +14054,7 @@
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="33" t="s">
         <v>126</v>
       </c>
       <c r="C60" s="1" t="n">
@@ -14082,7 +14076,7 @@
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="33" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="1" t="n">
@@ -14104,7 +14098,7 @@
       <c r="A62" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C62" s="21" t="n">
@@ -14126,7 +14120,7 @@
       <c r="A63" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="21" t="n">
@@ -14148,7 +14142,7 @@
       <c r="A64" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="37" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="21" t="n">
@@ -14170,7 +14164,7 @@
       <c r="A65" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="37" t="s">
         <v>119</v>
       </c>
       <c r="C65" s="21" t="n">
@@ -14192,7 +14186,7 @@
       <c r="A66" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="37" t="s">
         <v>120</v>
       </c>
       <c r="C66" s="21" t="n">
@@ -14214,7 +14208,7 @@
       <c r="A67" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="37" t="s">
         <v>121</v>
       </c>
       <c r="C67" s="21" t="n">
@@ -14236,7 +14230,7 @@
       <c r="A68" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
         <v>122</v>
       </c>
       <c r="C68" s="21" t="n">
@@ -14258,7 +14252,7 @@
       <c r="A69" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C69" s="21" t="n">
@@ -14280,7 +14274,7 @@
       <c r="A70" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="37" t="s">
         <v>124</v>
       </c>
       <c r="C70" s="21" t="n">
@@ -14302,7 +14296,7 @@
       <c r="A71" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="37" t="s">
         <v>125</v>
       </c>
       <c r="C71" s="21" t="n">
@@ -14324,7 +14318,7 @@
       <c r="A72" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="37" t="s">
         <v>126</v>
       </c>
       <c r="C72" s="21" t="n">
@@ -14346,7 +14340,7 @@
       <c r="A73" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C73" s="21" t="n">
@@ -14365,542 +14359,542 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="33"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="33"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="35"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="35"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="35"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="35"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="35"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="35"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="35"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="35"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="35"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="35"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="33"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="33"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="35"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="35"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="35"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="35"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="35"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="35"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="35"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="35"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="35"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="35"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="33"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="33"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="35"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="35"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="35"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="35"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="35"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="35"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="35"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="35"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="35"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="35"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="33"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="33"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="35"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="35"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="35"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="35"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="35"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="35"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="35"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="35"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="35"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="35"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="33"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="33"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="35"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="35"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="35"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="35"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="35"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="35"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="35"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="35"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="35"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="35"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="33"/>
+      <c r="B134" s="31"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="33"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="35"/>
+      <c r="B136" s="33"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="35"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="35"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="35"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="35"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="35"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="35"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="35"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="35"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="35"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="33"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="33"/>
+      <c r="B147" s="31"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="35"/>
+      <c r="B148" s="33"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="35"/>
+      <c r="B149" s="33"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="35"/>
+      <c r="B150" s="33"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="35"/>
+      <c r="B151" s="33"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="35"/>
+      <c r="B152" s="33"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="35"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="35"/>
+      <c r="B154" s="33"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="35"/>
+      <c r="B155" s="33"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="35"/>
+      <c r="B156" s="33"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="35"/>
+      <c r="B157" s="33"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="33"/>
+      <c r="B158" s="31"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="33"/>
+      <c r="B159" s="31"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="35"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="35"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="35"/>
+      <c r="B162" s="33"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="35"/>
+      <c r="B163" s="33"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="35"/>
+      <c r="B164" s="33"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="35"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="35"/>
+      <c r="B166" s="33"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="35"/>
+      <c r="B167" s="33"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="35"/>
+      <c r="B168" s="33"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="35"/>
+      <c r="B169" s="33"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="33"/>
+      <c r="B170" s="31"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="33"/>
+      <c r="B171" s="31"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="35"/>
+      <c r="B172" s="33"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="35"/>
+      <c r="B173" s="33"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="35"/>
+      <c r="B174" s="33"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="35"/>
+      <c r="B175" s="33"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="35"/>
+      <c r="B176" s="33"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="35"/>
+      <c r="B177" s="33"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="35"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="35"/>
+      <c r="B179" s="33"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="35"/>
+      <c r="B180" s="33"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="35"/>
+      <c r="B181" s="33"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>

--- a/ampl-data-input-excel/30-PM-multi/30-PM-multi.xlsx
+++ b/ampl-data-input-excel/30-PM-multi/30-PM-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="171">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -663,10 +663,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -1284,7 +1290,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D1:D2 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1398,10 +1404,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1409,8 +1415,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1423,8 +1429,11 @@
       <c r="C1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="13" t="s">
         <v>133</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,9 +1444,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="39" t="n">
+        <v>135</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="39" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>46391</v>
       </c>
@@ -1461,7 +1473,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1476,13 +1488,13 @@
         <v>131</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>10</v>
@@ -1491,19 +1503,19 @@
         <v>11</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,14 +1533,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="30" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1538,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="41" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1561,7 +1573,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1572,16 +1584,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>10</v>
@@ -1590,19 +1602,19 @@
         <v>11</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,14 +1632,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="30" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1637,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="41" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1660,7 +1672,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1671,16 +1683,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>10</v>
@@ -1689,13 +1701,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1725,7 @@
         <v>45657</v>
       </c>
       <c r="F2" s="30" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="7" t="n">
@@ -1724,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="41" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1750,7 +1762,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="D1:D2 A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1761,25 +1773,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,7 +1805,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.9</v>
@@ -1821,7 +1833,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1832,25 +1844,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,10 +1876,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -1892,7 +1904,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1905,34 +1917,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,16 +1958,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -1982,8 +1994,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K26" activeCellId="1" sqref="D1:D2 K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1994,19 +2006,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,7 +2054,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="D1:D2 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6544,7 +6556,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+      <selection pane="topLeft" activeCell="B100" activeCellId="1" sqref="D1:D2 B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8127,7 +8139,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="1" sqref="D1:D2 G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11719,7 +11731,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12178,7 +12190,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12375,7 +12387,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12740,7 +12752,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
+      <selection pane="topLeft" activeCell="F71" activeCellId="1" sqref="D1:D2 F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14918,7 +14930,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="D1:D2 G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/30-PM-multi/30-PM-multi.xlsx
+++ b/ampl-data-input-excel/30-PM-multi/30-PM-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="172">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -675,6 +676,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -684,6 +688,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -691,12 +701,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -935,7 +939,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1097,10 +1101,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D1:D2 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1406,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1470,31 +1470,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>10</v>
@@ -1502,65 +1501,47 @@
       <c r="F1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="30" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
       <c r="F2" s="30" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="41" t="b">
+        <f aca="false">E2+20</f>
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="41" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1570,87 +1551,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="30" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="41" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="41" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1669,79 +1605,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="30" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="41" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="41" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1759,16 +1658,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="D1:D2 A26"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,43 +1675,16 @@
         <v>151</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1830,59 +1702,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1901,79 +1755,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1992,46 +1808,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="1" sqref="D1:D2 K26"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2054,7 +1925,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="D1:D2 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2189,11 +2060,11 @@
         <f aca="false">H3 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2" t="b">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2235,11 +2106,11 @@
         <f aca="false">H4 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2" t="b">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2281,11 +2152,11 @@
         <f aca="false">H5 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2" t="b">
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2327,11 +2198,11 @@
         <f aca="false">H6 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2" t="b">
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2373,11 +2244,11 @@
         <f aca="false">H7 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2" t="b">
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2419,11 +2290,11 @@
         <f aca="false">H8 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2" t="b">
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2465,11 +2336,11 @@
         <f aca="false">H9 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2" t="b">
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2511,11 +2382,11 @@
         <f aca="false">H10 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2" t="b">
         <f aca="false">C10&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2557,11 +2428,11 @@
         <f aca="false">H11 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2" t="b">
         <f aca="false">C11&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2603,11 +2474,11 @@
         <f aca="false">H12 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2" t="b">
         <f aca="false">C12&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2649,11 +2520,11 @@
         <f aca="false">H13 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="2" t="b">
         <f aca="false">C13&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2695,11 +2566,11 @@
         <f aca="false">H14 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="2" t="b">
         <f aca="false">C14&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2741,11 +2612,11 @@
         <f aca="false">H15 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="2" t="b">
         <f aca="false">C15&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2787,11 +2658,11 @@
         <f aca="false">H16 + 0.25</f>
         <v>3.5</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="2" t="b">
         <f aca="false">C16&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2833,11 +2704,11 @@
         <f aca="false">H17 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="2" t="b">
         <f aca="false">C17&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2879,11 +2750,11 @@
         <f aca="false">H18 + 0.25</f>
         <v>3.5</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="2" t="b">
         <f aca="false">C18&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2925,11 +2796,11 @@
         <f aca="false">H19 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="2" t="b">
         <f aca="false">C19&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -2971,11 +2842,11 @@
         <f aca="false">H20 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="2" t="b">
         <f aca="false">C20&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3017,11 +2888,11 @@
         <f aca="false">H21 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="K21" s="2" t="b">
         <f aca="false">C21&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3063,11 +2934,11 @@
         <f aca="false">H22 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="2" t="b">
         <f aca="false">C22&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3109,11 +2980,11 @@
         <f aca="false">H23 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="2" t="b">
         <f aca="false">C23&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3155,11 +3026,11 @@
         <f aca="false">H24 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="K24" s="2" t="b">
         <f aca="false">C24&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3201,11 +3072,11 @@
         <f aca="false">H25 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A25) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="2" t="b">
         <f aca="false">C25&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3247,11 +3118,11 @@
         <f aca="false">H26 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A26) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="2" t="b">
         <f aca="false">C26&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3293,11 +3164,11 @@
         <f aca="false">H27 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A27) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="2" t="b">
         <f aca="false">C27&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3339,11 +3210,11 @@
         <f aca="false">H28 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A28) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="2" t="b">
         <f aca="false">C28&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3385,11 +3256,11 @@
         <f aca="false">H29 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="2" t="b">
         <f aca="false">C29&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3431,11 +3302,11 @@
         <f aca="false">H30 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="K30" s="2" t="b">
         <f aca="false">C30&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3477,11 +3348,11 @@
         <f aca="false">H31 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="J31" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="2" t="b">
         <f aca="false">C31&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3523,11 +3394,11 @@
         <f aca="false">H32 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="2" t="b">
         <f aca="false">C32&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3569,11 +3440,11 @@
         <f aca="false">H33 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="2" t="b">
         <f aca="false">C33&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3615,11 +3486,11 @@
         <f aca="false">H34 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="2" t="b">
         <f aca="false">C34&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3661,11 +3532,11 @@
         <f aca="false">H35 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="2" t="b">
         <f aca="false">C35&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3707,11 +3578,11 @@
         <f aca="false">H36 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="2" t="b">
         <f aca="false">C36&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3753,11 +3624,11 @@
         <f aca="false">H37 + 0.25</f>
         <v>4</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="2" t="b">
         <f aca="false">C37&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3799,11 +3670,11 @@
         <f aca="false">H38 + 0.25</f>
         <v>5.25</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" s="2" t="b">
         <f aca="false">C38&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3845,11 +3716,11 @@
         <f aca="false">H39 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="2" t="b">
         <f aca="false">C39&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3891,11 +3762,11 @@
         <f aca="false">H40 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="J40" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="K40" s="2" t="b">
         <f aca="false">C40&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3937,11 +3808,11 @@
         <f aca="false">H41 + 0.25</f>
         <v>5.25</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J41" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="K41" s="2" t="b">
         <f aca="false">C41&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -3983,11 +3854,11 @@
         <f aca="false">H42 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="J42" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K42" s="2" t="n">
+      <c r="K42" s="2" t="b">
         <f aca="false">C42&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4029,11 +3900,11 @@
         <f aca="false">H43 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="J43" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="K43" s="2" t="b">
         <f aca="false">C43&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4075,11 +3946,11 @@
         <f aca="false">H44 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="J44" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="K44" s="2" t="b">
         <f aca="false">C44&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4121,11 +3992,11 @@
         <f aca="false">H45 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="J45" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K45" s="2" t="n">
+      <c r="K45" s="2" t="b">
         <f aca="false">C45&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4167,11 +4038,11 @@
         <f aca="false">H46 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="J46" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="K46" s="2" t="b">
         <f aca="false">C46&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4213,11 +4084,11 @@
         <f aca="false">H47 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J47" s="2" t="n">
+      <c r="J47" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="K47" s="2" t="b">
         <f aca="false">C47&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4259,11 +4130,11 @@
         <f aca="false">H48 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="J48" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="K48" s="2" t="b">
         <f aca="false">C48&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4305,11 +4176,11 @@
         <f aca="false">H49 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="J49" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="K49" s="2" t="b">
         <f aca="false">C49&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4351,11 +4222,11 @@
         <f aca="false">H50 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="J50" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="2" t="b">
         <f aca="false">C50&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4397,11 +4268,11 @@
         <f aca="false">H51 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="J51" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="2" t="b">
         <f aca="false">C51&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4443,11 +4314,11 @@
         <f aca="false">H52 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="J52" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K52" s="2" t="b">
         <f aca="false">C52&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4489,11 +4360,11 @@
         <f aca="false">H53 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="J53" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="K53" s="2" t="b">
         <f aca="false">C53&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4535,11 +4406,11 @@
         <f aca="false">H54 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="J54" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="K54" s="2" t="b">
         <f aca="false">C54&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4581,11 +4452,11 @@
         <f aca="false">H55 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J55" s="2" t="n">
+      <c r="J55" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K55" s="2" t="n">
+      <c r="K55" s="2" t="b">
         <f aca="false">C55&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4627,11 +4498,11 @@
         <f aca="false">H56 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J56" s="2" t="n">
+      <c r="J56" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K56" s="2" t="n">
+      <c r="K56" s="2" t="b">
         <f aca="false">C56&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4673,11 +4544,11 @@
         <f aca="false">H57 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J57" s="2" t="n">
+      <c r="J57" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A57) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K57" s="2" t="b">
         <f aca="false">C57&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4719,11 +4590,11 @@
         <f aca="false">H58 + 0.25</f>
         <v>2.5</v>
       </c>
-      <c r="J58" s="2" t="n">
+      <c r="J58" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A58) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K58" s="2" t="n">
+      <c r="K58" s="2" t="b">
         <f aca="false">C58&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4765,11 +4636,11 @@
         <f aca="false">H59 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J59" s="2" t="n">
+      <c r="J59" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A59) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K59" s="2" t="n">
+      <c r="K59" s="2" t="b">
         <f aca="false">C59&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4811,11 +4682,11 @@
         <f aca="false">H60 + 0.25</f>
         <v>3.5</v>
       </c>
-      <c r="J60" s="2" t="n">
+      <c r="J60" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A60) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" s="2" t="b">
         <f aca="false">C60&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4857,11 +4728,11 @@
         <f aca="false">H61 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J61" s="2" t="n">
+      <c r="J61" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A61) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="K61" s="2" t="b">
         <f aca="false">C61&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4903,11 +4774,11 @@
         <f aca="false">H62 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J62" s="2" t="n">
+      <c r="J62" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A62) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K62" s="2" t="n">
+      <c r="K62" s="2" t="b">
         <f aca="false">C62&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4949,11 +4820,11 @@
         <f aca="false">H63 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J63" s="2" t="n">
+      <c r="J63" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A63) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" s="2" t="b">
         <f aca="false">C63&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4995,11 +4866,11 @@
         <f aca="false">H64 + 0.25</f>
         <v>6.5</v>
       </c>
-      <c r="J64" s="2" t="n">
+      <c r="J64" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A64) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K64" s="2" t="n">
+      <c r="K64" s="2" t="b">
         <f aca="false">C64&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5041,11 +4912,11 @@
         <f aca="false">H65 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J65" s="2" t="n">
+      <c r="J65" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A65) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K65" s="2" t="n">
+      <c r="K65" s="2" t="b">
         <f aca="false">C65&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5087,11 +4958,11 @@
         <f aca="false">H66 + 0.25</f>
         <v>3</v>
       </c>
-      <c r="J66" s="2" t="n">
+      <c r="J66" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A66) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K66" s="2" t="n">
+      <c r="K66" s="2" t="b">
         <f aca="false">C66&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5133,11 +5004,11 @@
         <f aca="false">H67 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J67" s="2" t="n">
+      <c r="J67" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A67) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K67" s="2" t="n">
+      <c r="K67" s="2" t="b">
         <f aca="false">C67&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5179,11 +5050,11 @@
         <f aca="false">H68 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J68" s="2" t="n">
+      <c r="J68" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A68) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K68" s="2" t="n">
+      <c r="K68" s="2" t="b">
         <f aca="false">C68&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5225,11 +5096,11 @@
         <f aca="false">H69 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J69" s="2" t="n">
+      <c r="J69" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A69) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K69" s="2" t="n">
+      <c r="K69" s="2" t="b">
         <f aca="false">C69&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5271,11 +5142,11 @@
         <f aca="false">H70 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J70" s="2" t="n">
+      <c r="J70" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A70) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K70" s="2" t="n">
+      <c r="K70" s="2" t="b">
         <f aca="false">C70&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5317,11 +5188,11 @@
         <f aca="false">H71 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J71" s="2" t="n">
+      <c r="J71" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A71) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K71" s="2" t="n">
+      <c r="K71" s="2" t="b">
         <f aca="false">C71&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5363,11 +5234,11 @@
         <f aca="false">H72 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J72" s="2" t="n">
+      <c r="J72" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A72) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K72" s="2" t="n">
+      <c r="K72" s="2" t="b">
         <f aca="false">C72&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5409,11 +5280,11 @@
         <f aca="false">H73 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J73" s="2" t="n">
+      <c r="J73" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A73) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K73" s="2" t="n">
+      <c r="K73" s="2" t="b">
         <f aca="false">C73&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5455,11 +5326,11 @@
         <f aca="false">H74 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J74" s="2" t="n">
+      <c r="J74" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A74) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K74" s="2" t="n">
+      <c r="K74" s="2" t="b">
         <f aca="false">C74&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5501,11 +5372,11 @@
         <f aca="false">H75 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J75" s="2" t="n">
+      <c r="J75" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A75) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K75" s="2" t="n">
+      <c r="K75" s="2" t="b">
         <f aca="false">C75&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5547,11 +5418,11 @@
         <f aca="false">H76 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J76" s="2" t="n">
+      <c r="J76" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A76) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K76" s="2" t="n">
+      <c r="K76" s="2" t="b">
         <f aca="false">C76&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5593,11 +5464,11 @@
         <f aca="false">H77 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J77" s="2" t="n">
+      <c r="J77" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A77) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K77" s="2" t="n">
+      <c r="K77" s="2" t="b">
         <f aca="false">C77&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5639,11 +5510,11 @@
         <f aca="false">H78 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J78" s="2" t="n">
+      <c r="J78" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A78) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K78" s="2" t="b">
         <f aca="false">C78&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5685,11 +5556,11 @@
         <f aca="false">H79 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J79" s="2" t="n">
+      <c r="J79" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A79) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K79" s="2" t="n">
+      <c r="K79" s="2" t="b">
         <f aca="false">C79&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5731,11 +5602,11 @@
         <f aca="false">H80 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J80" s="2" t="n">
+      <c r="J80" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A80) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K80" s="2" t="n">
+      <c r="K80" s="2" t="b">
         <f aca="false">C80&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5777,11 +5648,11 @@
         <f aca="false">H81 + 0.25</f>
         <v>5.25</v>
       </c>
-      <c r="J81" s="2" t="n">
+      <c r="J81" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A81) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K81" s="2" t="n">
+      <c r="K81" s="2" t="b">
         <f aca="false">C81&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5823,11 +5694,11 @@
         <f aca="false">H82 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J82" s="2" t="n">
+      <c r="J82" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A82) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K82" s="2" t="n">
+      <c r="K82" s="2" t="b">
         <f aca="false">C82&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5869,11 +5740,11 @@
         <f aca="false">H83 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J83" s="2" t="n">
+      <c r="J83" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A83) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="K83" s="2" t="b">
         <f aca="false">C83&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5915,11 +5786,11 @@
         <f aca="false">H84 + 0.25</f>
         <v>4.75</v>
       </c>
-      <c r="J84" s="2" t="n">
+      <c r="J84" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A84) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K84" s="2" t="n">
+      <c r="K84" s="2" t="b">
         <f aca="false">C84&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5961,11 +5832,11 @@
         <f aca="false">H85 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J85" s="2" t="n">
+      <c r="J85" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A85) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K85" s="2" t="n">
+      <c r="K85" s="2" t="b">
         <f aca="false">C85&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6007,11 +5878,11 @@
         <f aca="false">H86 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J86" s="2" t="n">
+      <c r="J86" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A86) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K86" s="2" t="n">
+      <c r="K86" s="2" t="b">
         <f aca="false">C86&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6053,11 +5924,11 @@
         <f aca="false">H87 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J87" s="2" t="n">
+      <c r="J87" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A87) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K87" s="2" t="n">
+      <c r="K87" s="2" t="b">
         <f aca="false">C87&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6099,11 +5970,11 @@
         <f aca="false">H88 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J88" s="2" t="n">
+      <c r="J88" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A88) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K88" s="2" t="n">
+      <c r="K88" s="2" t="b">
         <f aca="false">C88&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6145,11 +6016,11 @@
         <f aca="false">H89 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J89" s="2" t="n">
+      <c r="J89" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A89) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K89" s="2" t="n">
+      <c r="K89" s="2" t="b">
         <f aca="false">C89&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6191,11 +6062,11 @@
         <f aca="false">H90 + 0.25</f>
         <v>4</v>
       </c>
-      <c r="J90" s="2" t="n">
+      <c r="J90" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A90) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K90" s="2" t="n">
+      <c r="K90" s="2" t="b">
         <f aca="false">C90&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6237,11 +6108,11 @@
         <f aca="false">H91 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J91" s="2" t="n">
+      <c r="J91" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A91) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K91" s="2" t="n">
+      <c r="K91" s="2" t="b">
         <f aca="false">C91&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6283,11 +6154,11 @@
         <f aca="false">H92 + 0.25</f>
         <v>3</v>
       </c>
-      <c r="J92" s="2" t="n">
+      <c r="J92" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A92) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K92" s="2" t="n">
+      <c r="K92" s="2" t="b">
         <f aca="false">C92&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6329,11 +6200,11 @@
         <f aca="false">H93 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J93" s="2" t="n">
+      <c r="J93" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A93) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K93" s="2" t="n">
+      <c r="K93" s="2" t="b">
         <f aca="false">C93&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6375,11 +6246,11 @@
         <f aca="false">H94 + 0.25</f>
         <v>2</v>
       </c>
-      <c r="J94" s="2" t="n">
+      <c r="J94" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A94) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K94" s="2" t="n">
+      <c r="K94" s="2" t="b">
         <f aca="false">C94&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6421,11 +6292,11 @@
         <f aca="false">H95 + 0.25</f>
         <v>3.5</v>
       </c>
-      <c r="J95" s="2" t="n">
+      <c r="J95" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A95) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K95" s="2" t="n">
+      <c r="K95" s="2" t="b">
         <f aca="false">C95&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6467,11 +6338,11 @@
         <f aca="false">H96 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J96" s="2" t="n">
+      <c r="J96" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A96) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K96" s="2" t="n">
+      <c r="K96" s="2" t="b">
         <f aca="false">C96&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6513,11 +6384,11 @@
         <f aca="false">H97 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J97" s="2" t="n">
+      <c r="J97" s="2" t="b">
         <f aca="false">COUNTIF(assign!$B$1:$B$493, A97) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K97" s="2" t="n">
+      <c r="K97" s="2" t="b">
         <f aca="false">C97&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -6556,7 +6427,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="1" sqref="D1:D2 B100"/>
+      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8139,7 +8010,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="1" sqref="D1:D2 G38"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8207,11 +8078,11 @@
         <f aca="false">VLOOKUP(B2, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B2)&gt;0</f>
         <v>1</v>
       </c>
@@ -8243,11 +8114,11 @@
         <f aca="false">VLOOKUP(B3, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B3)&gt;0</f>
         <v>1</v>
       </c>
@@ -8279,11 +8150,11 @@
         <f aca="false">VLOOKUP(B4, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B4)&gt;0</f>
         <v>1</v>
       </c>
@@ -8315,11 +8186,11 @@
         <f aca="false">VLOOKUP(B5, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B5)&gt;0</f>
         <v>1</v>
       </c>
@@ -8351,11 +8222,11 @@
         <f aca="false">VLOOKUP(B6, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B6)&gt;0</f>
         <v>1</v>
       </c>
@@ -8387,11 +8258,11 @@
         <f aca="false">VLOOKUP(B7, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B7)&gt;0</f>
         <v>1</v>
       </c>
@@ -8423,11 +8294,11 @@
         <f aca="false">VLOOKUP(B8, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B8)&gt;0</f>
         <v>1</v>
       </c>
@@ -8459,11 +8330,11 @@
         <f aca="false">VLOOKUP(B9, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B9)&gt;0</f>
         <v>1</v>
       </c>
@@ -8495,11 +8366,11 @@
         <f aca="false">VLOOKUP(B10, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B10)&gt;0</f>
         <v>1</v>
       </c>
@@ -8531,11 +8402,11 @@
         <f aca="false">VLOOKUP(B11, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B11)&gt;0</f>
         <v>1</v>
       </c>
@@ -8567,11 +8438,11 @@
         <f aca="false">VLOOKUP(B12, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B12)&gt;0</f>
         <v>1</v>
       </c>
@@ -8603,11 +8474,11 @@
         <f aca="false">VLOOKUP(B13, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B13)&gt;0</f>
         <v>1</v>
       </c>
@@ -8638,11 +8509,11 @@
         <f aca="false">VLOOKUP(B14, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B14)&gt;0</f>
         <v>1</v>
       </c>
@@ -8674,11 +8545,11 @@
         <f aca="false">VLOOKUP(B15, task!A$2:I$300, 9, 0)</f>
         <v>3.5</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B15)&gt;0</f>
         <v>1</v>
       </c>
@@ -8710,11 +8581,11 @@
         <f aca="false">VLOOKUP(B16, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B16)&gt;0</f>
         <v>1</v>
       </c>
@@ -8746,11 +8617,11 @@
         <f aca="false">VLOOKUP(B17, task!A$2:I$300, 9, 0)</f>
         <v>3.5</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B17)&gt;0</f>
         <v>1</v>
       </c>
@@ -8782,11 +8653,11 @@
         <f aca="false">VLOOKUP(B18, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B18)&gt;0</f>
         <v>1</v>
       </c>
@@ -8816,11 +8687,11 @@
       <c r="F19" s="1" t="n">
         <v>1.75</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B19)&gt;0</f>
         <v>1</v>
       </c>
@@ -8852,11 +8723,11 @@
         <f aca="false">VLOOKUP(B20, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B20)&gt;0</f>
         <v>1</v>
       </c>
@@ -8888,11 +8759,11 @@
         <f aca="false">VLOOKUP(B21, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B21)&gt;0</f>
         <v>1</v>
       </c>
@@ -8924,11 +8795,11 @@
         <f aca="false">VLOOKUP(B22, task!A$2:I$300, 9, 0)</f>
         <v>1.75</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B22)&gt;0</f>
         <v>1</v>
       </c>
@@ -8960,11 +8831,11 @@
         <f aca="false">VLOOKUP(B23, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B23)&gt;0</f>
         <v>1</v>
       </c>
@@ -8996,11 +8867,11 @@
         <f aca="false">VLOOKUP(B24, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B24)&gt;0</f>
         <v>1</v>
       </c>
@@ -9032,11 +8903,11 @@
         <f aca="false">VLOOKUP(B25, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A25) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B25)&gt;0</f>
         <v>1</v>
       </c>
@@ -9068,11 +8939,11 @@
         <f aca="false">VLOOKUP(B26, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A26) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B26)&gt;0</f>
         <v>1</v>
       </c>
@@ -9104,11 +8975,11 @@
         <f aca="false">VLOOKUP(B27, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A27) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B27)&gt;0</f>
         <v>1</v>
       </c>
@@ -9140,11 +9011,11 @@
         <f aca="false">VLOOKUP(B28, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A28) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B28)&gt;0</f>
         <v>1</v>
       </c>
@@ -9177,11 +9048,11 @@
         <f aca="false">VLOOKUP(B29, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B29)&gt;0</f>
         <v>1</v>
       </c>
@@ -9214,11 +9085,11 @@
         <f aca="false">VLOOKUP(B30, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B30)&gt;0</f>
         <v>1</v>
       </c>
@@ -9251,11 +9122,11 @@
         <f aca="false">VLOOKUP(B31, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B31)&gt;0</f>
         <v>1</v>
       </c>
@@ -9288,11 +9159,11 @@
         <f aca="false">VLOOKUP(B32, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B32)&gt;0</f>
         <v>1</v>
       </c>
@@ -9325,11 +9196,11 @@
         <f aca="false">VLOOKUP(B33, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B33)&gt;0</f>
         <v>1</v>
       </c>
@@ -9362,11 +9233,11 @@
         <f aca="false">VLOOKUP(B34, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B34)&gt;0</f>
         <v>1</v>
       </c>
@@ -9399,11 +9270,11 @@
         <f aca="false">VLOOKUP(B35, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B35)&gt;0</f>
         <v>1</v>
       </c>
@@ -9436,11 +9307,11 @@
         <f aca="false">VLOOKUP(B36, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B36)&gt;0</f>
         <v>1</v>
       </c>
@@ -9473,11 +9344,11 @@
         <f aca="false">VLOOKUP(B37, task!A$2:I$300, 9, 0)</f>
         <v>4</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B37)&gt;0</f>
         <v>1</v>
       </c>
@@ -9510,11 +9381,11 @@
         <f aca="false">VLOOKUP(B38, task!A$2:I$300, 9, 0)</f>
         <v>5.25</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B38)&gt;0</f>
         <v>1</v>
       </c>
@@ -9547,11 +9418,11 @@
         <f aca="false">VLOOKUP(B39, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B39)&gt;0</f>
         <v>1</v>
       </c>
@@ -9584,11 +9455,11 @@
         <f aca="false">VLOOKUP(B40, task!A$2:I$300, 9, 0)</f>
         <v>2.25</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B40)&gt;0</f>
         <v>1</v>
       </c>
@@ -9621,11 +9492,11 @@
         <f aca="false">VLOOKUP(B41, task!A$2:I$300, 9, 0)</f>
         <v>5.25</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B41)&gt;0</f>
         <v>1</v>
       </c>
@@ -9658,11 +9529,11 @@
         <f aca="false">VLOOKUP(B42, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B42)&gt;0</f>
         <v>1</v>
       </c>
@@ -9695,11 +9566,11 @@
         <f aca="false">VLOOKUP(B43, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B43)&gt;0</f>
         <v>1</v>
       </c>
@@ -9732,11 +9603,11 @@
         <f aca="false">VLOOKUP(B44, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B44)&gt;0</f>
         <v>1</v>
       </c>
@@ -9769,11 +9640,11 @@
         <f aca="false">VLOOKUP(B45, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B45)&gt;0</f>
         <v>1</v>
       </c>
@@ -9806,11 +9677,11 @@
         <f aca="false">VLOOKUP(B46, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B46)&gt;0</f>
         <v>1</v>
       </c>
@@ -9843,11 +9714,11 @@
         <f aca="false">VLOOKUP(B47, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B47)&gt;0</f>
         <v>1</v>
       </c>
@@ -9880,11 +9751,11 @@
         <f aca="false">VLOOKUP(B48, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B48)&gt;0</f>
         <v>1</v>
       </c>
@@ -9917,11 +9788,11 @@
         <f aca="false">VLOOKUP(B49, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B49)&gt;0</f>
         <v>1</v>
       </c>
@@ -9954,11 +9825,11 @@
         <f aca="false">VLOOKUP(B50, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B50)&gt;0</f>
         <v>1</v>
       </c>
@@ -9991,11 +9862,11 @@
         <f aca="false">VLOOKUP(B51, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B51)&gt;0</f>
         <v>1</v>
       </c>
@@ -10028,11 +9899,11 @@
         <f aca="false">VLOOKUP(B52, task!A$2:I$300, 9, 0)</f>
         <v>1.75</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B52)&gt;0</f>
         <v>1</v>
       </c>
@@ -10065,11 +9936,11 @@
         <f aca="false">VLOOKUP(B53, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B53)&gt;0</f>
         <v>1</v>
       </c>
@@ -10102,11 +9973,11 @@
         <f aca="false">VLOOKUP(B54, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B54)&gt;0</f>
         <v>1</v>
       </c>
@@ -10139,11 +10010,11 @@
         <f aca="false">VLOOKUP(B55, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H55" s="2" t="n">
+      <c r="H55" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B55)&gt;0</f>
         <v>1</v>
       </c>
@@ -10176,11 +10047,11 @@
         <f aca="false">VLOOKUP(B56, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H56" s="2" t="n">
+      <c r="H56" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B56)&gt;0</f>
         <v>1</v>
       </c>
@@ -10213,11 +10084,11 @@
         <f aca="false">VLOOKUP(B57, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A57) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B57)&gt;0</f>
         <v>1</v>
       </c>
@@ -10250,11 +10121,11 @@
         <f aca="false">VLOOKUP(B58, task!A$2:I$300, 9, 0)</f>
         <v>2.5</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A58) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B58)&gt;0</f>
         <v>1</v>
       </c>
@@ -10287,11 +10158,11 @@
         <f aca="false">VLOOKUP(B59, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A59) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H59" s="2" t="n">
+      <c r="H59" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B59)&gt;0</f>
         <v>1</v>
       </c>
@@ -10324,11 +10195,11 @@
         <f aca="false">VLOOKUP(B60, task!A$2:I$300, 9, 0)</f>
         <v>3.5</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A60) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B60)&gt;0</f>
         <v>1</v>
       </c>
@@ -10361,11 +10232,11 @@
         <f aca="false">VLOOKUP(B61, task!A$2:I$300, 9, 0)</f>
         <v>2.25</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="G61" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A61) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H61" s="2" t="n">
+      <c r="H61" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B61)&gt;0</f>
         <v>1</v>
       </c>
@@ -10398,11 +10269,11 @@
         <f aca="false">VLOOKUP(B62, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A62) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B62)&gt;0</f>
         <v>1</v>
       </c>
@@ -10435,11 +10306,11 @@
         <f aca="false">VLOOKUP(B63, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A63) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B63)&gt;0</f>
         <v>1</v>
       </c>
@@ -10472,11 +10343,11 @@
         <f aca="false">VLOOKUP(B64, task!A$2:I$300, 9, 0)</f>
         <v>6.5</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A64) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B64)&gt;0</f>
         <v>1</v>
       </c>
@@ -10509,11 +10380,11 @@
         <f aca="false">VLOOKUP(B65, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A65) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B65)&gt;0</f>
         <v>1</v>
       </c>
@@ -10546,11 +10417,11 @@
         <f aca="false">VLOOKUP(B66, task!A$2:I$300, 9, 0)</f>
         <v>3</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A66) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B66)&gt;0</f>
         <v>1</v>
       </c>
@@ -10583,11 +10454,11 @@
         <f aca="false">VLOOKUP(B67, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A67) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B67)&gt;0</f>
         <v>1</v>
       </c>
@@ -10620,11 +10491,11 @@
         <f aca="false">VLOOKUP(B68, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A68) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B68)&gt;0</f>
         <v>1</v>
       </c>
@@ -10657,11 +10528,11 @@
         <f aca="false">VLOOKUP(B69, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A69) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H69" s="2" t="n">
+      <c r="H69" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B69)&gt;0</f>
         <v>1</v>
       </c>
@@ -10694,11 +10565,11 @@
         <f aca="false">VLOOKUP(B70, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A70) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H70" s="2" t="n">
+      <c r="H70" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B70)&gt;0</f>
         <v>1</v>
       </c>
@@ -10731,11 +10602,11 @@
         <f aca="false">VLOOKUP(B71, task!A$2:I$300, 9, 0)</f>
         <v>1.5</v>
       </c>
-      <c r="G71" s="2" t="n">
+      <c r="G71" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A71) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B71)&gt;0</f>
         <v>1</v>
       </c>
@@ -10768,11 +10639,11 @@
         <f aca="false">VLOOKUP(B72, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G72" s="2" t="n">
+      <c r="G72" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A72) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H72" s="2" t="n">
+      <c r="H72" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B72)&gt;0</f>
         <v>1</v>
       </c>
@@ -10805,11 +10676,11 @@
         <f aca="false">VLOOKUP(B73, task!A$2:I$300, 9, 0)</f>
         <v>0.25</v>
       </c>
-      <c r="G73" s="2" t="n">
+      <c r="G73" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A73) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H73" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B73)&gt;0</f>
         <v>1</v>
       </c>
@@ -10842,11 +10713,11 @@
         <f aca="false">VLOOKUP(B74, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A74) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H74" s="2" t="n">
+      <c r="H74" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B74)&gt;0</f>
         <v>1</v>
       </c>
@@ -10879,11 +10750,11 @@
         <f aca="false">VLOOKUP(B75, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G75" s="2" t="n">
+      <c r="G75" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A75) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H75" s="2" t="n">
+      <c r="H75" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B75)&gt;0</f>
         <v>1</v>
       </c>
@@ -10916,11 +10787,11 @@
         <f aca="false">VLOOKUP(B76, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G76" s="2" t="n">
+      <c r="G76" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A76) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H76" s="2" t="n">
+      <c r="H76" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B76)&gt;0</f>
         <v>1</v>
       </c>
@@ -10953,11 +10824,11 @@
         <f aca="false">VLOOKUP(B77, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G77" s="2" t="n">
+      <c r="G77" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A77) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H77" s="2" t="n">
+      <c r="H77" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B77)&gt;0</f>
         <v>1</v>
       </c>
@@ -10990,11 +10861,11 @@
         <f aca="false">VLOOKUP(B78, task!A$2:I$300, 9, 0)</f>
         <v>2.75</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A78) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B78)&gt;0</f>
         <v>1</v>
       </c>
@@ -11027,11 +10898,11 @@
         <f aca="false">VLOOKUP(B79, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G79" s="2" t="n">
+      <c r="G79" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A79) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B79)&gt;0</f>
         <v>1</v>
       </c>
@@ -11064,11 +10935,11 @@
         <f aca="false">VLOOKUP(B80, task!A$2:I$300, 9, 0)</f>
         <v>0.75</v>
       </c>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A80) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B80)&gt;0</f>
         <v>1</v>
       </c>
@@ -11101,11 +10972,11 @@
         <f aca="false">VLOOKUP(B81, task!A$2:I$300, 9, 0)</f>
         <v>5.25</v>
       </c>
-      <c r="G81" s="2" t="n">
+      <c r="G81" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A81) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H81" s="2" t="n">
+      <c r="H81" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B81)&gt;0</f>
         <v>1</v>
       </c>
@@ -11138,11 +11009,11 @@
         <f aca="false">VLOOKUP(B82, task!A$2:I$300, 9, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="G82" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A82) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B82)&gt;0</f>
         <v>1</v>
       </c>
@@ -11175,11 +11046,11 @@
         <f aca="false">VLOOKUP(B83, task!A$2:I$300, 9, 0)</f>
         <v>2.75</v>
       </c>
-      <c r="G83" s="2" t="n">
+      <c r="G83" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A83) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H83" s="2" t="n">
+      <c r="H83" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B83)&gt;0</f>
         <v>1</v>
       </c>
@@ -11212,11 +11083,11 @@
         <f aca="false">VLOOKUP(B84, task!A$2:I$300, 9, 0)</f>
         <v>4.75</v>
       </c>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A84) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H84" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B84)&gt;0</f>
         <v>1</v>
       </c>
@@ -11249,11 +11120,11 @@
         <f aca="false">VLOOKUP(B85, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G85" s="2" t="n">
+      <c r="G85" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A85) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H85" s="2" t="n">
+      <c r="H85" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B85)&gt;0</f>
         <v>1</v>
       </c>
@@ -11286,11 +11157,11 @@
         <f aca="false">VLOOKUP(B86, task!A$2:I$300, 9, 0)</f>
         <v>1.75</v>
       </c>
-      <c r="G86" s="2" t="n">
+      <c r="G86" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A86) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H86" s="2" t="n">
+      <c r="H86" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B86)&gt;0</f>
         <v>1</v>
       </c>
@@ -11323,11 +11194,11 @@
         <f aca="false">VLOOKUP(B87, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G87" s="2" t="n">
+      <c r="G87" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A87) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H87" s="2" t="n">
+      <c r="H87" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B87)&gt;0</f>
         <v>1</v>
       </c>
@@ -11360,11 +11231,11 @@
         <f aca="false">VLOOKUP(B88, task!A$2:I$300, 9, 0)</f>
         <v>1.75</v>
       </c>
-      <c r="G88" s="2" t="n">
+      <c r="G88" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A88) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H88" s="2" t="n">
+      <c r="H88" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B88)&gt;0</f>
         <v>1</v>
       </c>
@@ -11397,11 +11268,11 @@
         <f aca="false">VLOOKUP(B89, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G89" s="2" t="n">
+      <c r="G89" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A89) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H89" s="2" t="n">
+      <c r="H89" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B89)&gt;0</f>
         <v>1</v>
       </c>
@@ -11434,11 +11305,11 @@
         <f aca="false">VLOOKUP(B90, task!A$2:I$300, 9, 0)</f>
         <v>4</v>
       </c>
-      <c r="G90" s="2" t="n">
+      <c r="G90" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A90) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H90" s="2" t="n">
+      <c r="H90" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B90)&gt;0</f>
         <v>1</v>
       </c>
@@ -11471,11 +11342,11 @@
         <f aca="false">VLOOKUP(B91, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G91" s="2" t="n">
+      <c r="G91" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A91) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H91" s="2" t="n">
+      <c r="H91" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B91)&gt;0</f>
         <v>1</v>
       </c>
@@ -11508,11 +11379,11 @@
         <f aca="false">VLOOKUP(B92, task!A$2:I$300, 9, 0)</f>
         <v>3</v>
       </c>
-      <c r="G92" s="2" t="n">
+      <c r="G92" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A92) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H92" s="2" t="n">
+      <c r="H92" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B92)&gt;0</f>
         <v>1</v>
       </c>
@@ -11545,11 +11416,11 @@
         <f aca="false">VLOOKUP(B93, task!A$2:I$300, 9, 0)</f>
         <v>0.5</v>
       </c>
-      <c r="G93" s="2" t="n">
+      <c r="G93" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A93) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H93" s="2" t="n">
+      <c r="H93" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B93)&gt;0</f>
         <v>1</v>
       </c>
@@ -11582,11 +11453,11 @@
         <f aca="false">VLOOKUP(B94, task!A$2:I$300, 9, 0)</f>
         <v>2</v>
       </c>
-      <c r="G94" s="2" t="n">
+      <c r="G94" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A94) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H94" s="2" t="n">
+      <c r="H94" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B94)&gt;0</f>
         <v>1</v>
       </c>
@@ -11619,11 +11490,11 @@
         <f aca="false">VLOOKUP(B95, task!A$2:I$300, 9, 0)</f>
         <v>3.5</v>
       </c>
-      <c r="G95" s="2" t="n">
+      <c r="G95" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A95) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H95" s="2" t="n">
+      <c r="H95" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B95)&gt;0</f>
         <v>1</v>
       </c>
@@ -11656,11 +11527,11 @@
         <f aca="false">VLOOKUP(B96, task!A$2:I$300, 9, 0)</f>
         <v>1</v>
       </c>
-      <c r="G96" s="2" t="n">
+      <c r="G96" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A96) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H96" s="2" t="n">
+      <c r="H96" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B96)&gt;0</f>
         <v>1</v>
       </c>
@@ -11693,11 +11564,11 @@
         <f aca="false">VLOOKUP(B97, task!A$2:I$300, 9, 0)</f>
         <v>2.25</v>
       </c>
-      <c r="G97" s="2" t="n">
+      <c r="G97" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$954, A97) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H97" s="2" t="n">
+      <c r="H97" s="2" t="b">
         <f aca="false">COUNTIF(task!$A$2:$A$637,B97)&gt;0</f>
         <v>1</v>
       </c>
@@ -11731,7 +11602,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12190,7 +12061,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12387,7 +12258,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12752,7 +12623,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F71" activeCellId="1" sqref="D1:D2 F71"/>
+      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12799,11 +12670,11 @@
       <c r="D2" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12821,11 +12692,11 @@
       <c r="D3" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12843,11 +12714,11 @@
       <c r="D4" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12865,11 +12736,11 @@
       <c r="D5" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12887,11 +12758,11 @@
       <c r="D6" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12909,11 +12780,11 @@
       <c r="D7" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12931,11 +12802,11 @@
       <c r="D8" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12953,11 +12824,11 @@
       <c r="D9" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12975,11 +12846,11 @@
       <c r="D10" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -12997,11 +12868,11 @@
       <c r="D11" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13019,11 +12890,11 @@
       <c r="D12" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13041,11 +12912,11 @@
       <c r="D13" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13063,11 +12934,11 @@
       <c r="D14" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13085,11 +12956,11 @@
       <c r="D15" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B15) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13107,11 +12978,11 @@
       <c r="D16" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B16) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13129,11 +13000,11 @@
       <c r="D17" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B17) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13151,11 +13022,11 @@
       <c r="D18" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B18) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13173,11 +13044,11 @@
       <c r="D19" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B19) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13195,11 +13066,11 @@
       <c r="D20" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B20) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13217,11 +13088,11 @@
       <c r="D21" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B21) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13239,11 +13110,11 @@
       <c r="D22" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B22) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13261,11 +13132,11 @@
       <c r="D23" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B23) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13283,11 +13154,11 @@
       <c r="D24" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B24) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13305,11 +13176,11 @@
       <c r="D25" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A25) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B25) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13327,11 +13198,11 @@
       <c r="D26" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A26) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B26) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13349,11 +13220,11 @@
       <c r="D27" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A27) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B27) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13371,11 +13242,11 @@
       <c r="D28" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A28) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B28) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13393,11 +13264,11 @@
       <c r="D29" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B29) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13415,11 +13286,11 @@
       <c r="D30" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B30) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13437,11 +13308,11 @@
       <c r="D31" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B31) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13459,11 +13330,11 @@
       <c r="D32" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B32) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13481,11 +13352,11 @@
       <c r="D33" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B33) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13503,11 +13374,11 @@
       <c r="D34" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B34) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13525,11 +13396,11 @@
       <c r="D35" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B35) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13547,11 +13418,11 @@
       <c r="D36" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B36) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13569,11 +13440,11 @@
       <c r="D37" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B37) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13591,11 +13462,11 @@
       <c r="D38" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B38) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13613,11 +13484,11 @@
       <c r="D39" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B39) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13635,11 +13506,11 @@
       <c r="D40" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B40) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13657,11 +13528,11 @@
       <c r="D41" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B41) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13679,11 +13550,11 @@
       <c r="D42" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B42) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13701,11 +13572,11 @@
       <c r="D43" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B43) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13723,11 +13594,11 @@
       <c r="D44" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B44) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13745,11 +13616,11 @@
       <c r="D45" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B45) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13767,11 +13638,11 @@
       <c r="D46" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B46) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13789,11 +13660,11 @@
       <c r="D47" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B47) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13811,11 +13682,11 @@
       <c r="D48" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B48) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13833,11 +13704,11 @@
       <c r="D49" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B49) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13855,11 +13726,11 @@
       <c r="D50" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B50) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13877,11 +13748,11 @@
       <c r="D51" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B51) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13899,11 +13770,11 @@
       <c r="D52" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B52) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13921,11 +13792,11 @@
       <c r="D53" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B53) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13943,11 +13814,11 @@
       <c r="D54" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B54) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13965,11 +13836,11 @@
       <c r="D55" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B55) &gt; 0</f>
         <v>1</v>
       </c>
@@ -13987,11 +13858,11 @@
       <c r="D56" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B56) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14009,11 +13880,11 @@
       <c r="D57" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A57) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B57) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14031,11 +13902,11 @@
       <c r="D58" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A58) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B58) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14053,11 +13924,11 @@
       <c r="D59" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A59) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B59) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14075,11 +13946,11 @@
       <c r="D60" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A60) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B60) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14097,11 +13968,11 @@
       <c r="D61" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A61) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B61) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14119,11 +13990,11 @@
       <c r="D62" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A62) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B62) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14141,11 +14012,11 @@
       <c r="D63" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A63) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B63) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14163,11 +14034,11 @@
       <c r="D64" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A64) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B64) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14185,11 +14056,11 @@
       <c r="D65" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A65) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B65) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14207,11 +14078,11 @@
       <c r="D66" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A66) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B66) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14229,11 +14100,11 @@
       <c r="D67" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A67) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B67) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14251,11 +14122,11 @@
       <c r="D68" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A68) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B68) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14273,11 +14144,11 @@
       <c r="D69" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A69) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B69) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14295,11 +14166,11 @@
       <c r="D70" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A70) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B70) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14317,11 +14188,11 @@
       <c r="D71" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A71) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="F71" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B71) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14339,11 +14210,11 @@
       <c r="D72" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A72) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F72" s="2" t="n">
+      <c r="F72" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B72) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14361,11 +14232,11 @@
       <c r="D73" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="2" t="b">
         <f aca="false">COUNTIF(expert!$A$2:$A$921, A73) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="F73" s="2" t="b">
         <f aca="false">COUNTIF(period!$A$2:$A$1000, B73) &gt; 0</f>
         <v>1</v>
       </c>
@@ -14930,7 +14801,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="D1:D2 G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/30-PM-multi/30-PM-multi.xlsx
+++ b/ampl-data-input-excel/30-PM-multi/30-PM-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -664,7 +664,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -673,7 +673,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D1:D2 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1406,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1705,7 +1705,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1811,7 +1811,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,8 +1883,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1925,7 +1925,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="D1:D2 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6427,7 +6427,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+      <selection pane="topLeft" activeCell="B100" activeCellId="1" sqref="D1:D2 B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8010,7 +8010,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="1" sqref="D1:D2 G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11602,7 +11602,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12061,7 +12061,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12258,7 +12258,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12623,7 +12623,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
+      <selection pane="topLeft" activeCell="F71" activeCellId="1" sqref="D1:D2 F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14801,7 +14801,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="1" sqref="D1:D2 G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
